--- a/exel.xlsx
+++ b/exel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iggym\Documents\Procesamiento Masivo de Datos\Project\daily_temp_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Google Drive\Tareas\Patos\proyecto\daily_temp_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC5A088-CDC6-461D-B6A6-C655C127CD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5D2D42-4479-43A5-B0CB-21760527C740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
+    <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13290" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Spring</t>
   </si>
@@ -68,13 +68,16 @@
   <si>
     <t>fall diff</t>
   </si>
+  <si>
+    <t>Pendientes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,6 +134,1433 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Spring</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$E$6:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$6:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>58.421871861099099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.5010425020048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.881461599026601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.358173906789297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.911647354806597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.156114338667599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.438440482874697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.172836605890602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.270995240463101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.1983704489218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.9748974799341</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.187597796723097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.4784694277269</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.209767957381302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.745855220551199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.6912430374392</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.862941851294103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62.111980697362199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.635711414056502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59.328487772539702</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.746271186440602</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.238237200259199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.180300797339697</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60.437331464929599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.6551048136646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83FC-42E9-A15F-D24B1EEFB3AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Summer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$6:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>74.925373076021501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.112963894586102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.970286244060603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.058718916005802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.868625369626201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.443314272730703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.057755056010805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.702001179476994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.338825171659195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.917601269649197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.636561406149994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.850887099851093</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75.482071406586599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.954373749807601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74.635529824026804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.222144778211202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.101324580034699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.082342733188696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.147324454251702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.961610532267102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.987340132750504</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76.559073609199004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.778776626132398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76.474828795043194</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.016541538461496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-83FC-42E9-A15F-D24B1EEFB3AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Winter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$6:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>62.400744532340603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.0914410058027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.577145759268603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.634934497816602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.929392799570103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.876569264069197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.417747252747198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.962885462555001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.125038245792901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.823072943610903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.2832555728356</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.444381443298902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.027367870225</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.392898172323697</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.572496107939799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.484260651629</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.829596412556</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61.748216833095498</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62.105168210628896</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.553204794163598</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.390384615384598</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.022592997811799</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62.210978260869503</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61.621349557522102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.576078645548797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-83FC-42E9-A15F-D24B1EEFB3AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Fall</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$6:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>60.0783711664291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.476424079065602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.182247880209196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.842077893741497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.4693003229279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.275093639639003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.674941518395102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.798859888140001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.3824094235231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.004777261934201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.445541989067898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.278345202734101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62.025259689089403</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.831270714207598</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.494699837750098</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.989566978981998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.8748984034833</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61.2644168386907</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.315743848906202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.607502756968401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63.418053393080903</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>63.590938149888302</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62.639196305907497</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61.6572215968637</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.0894082316251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-83FC-42E9-A15F-D24B1EEFB3AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1989863088"/>
+        <c:axId val="1989842288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1989863088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1989842288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1989842288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1989863088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC98AC8-8ED2-4D00-A0D0-7E4111BBA127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,15 +1860,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C714A26-8582-4DED-B929-AA40AE456B7C}">
-  <dimension ref="E5:M32"/>
+  <dimension ref="E5:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="5:13" x14ac:dyDescent="0.25">
@@ -819,7 +2250,7 @@
         <v>0.44076472713369697</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>2006</v>
       </c>
@@ -852,7 +2283,7 @@
         <v>-1.1671967863337969</v>
       </c>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>2007</v>
       </c>
@@ -885,7 +2316,7 @@
         <v>0.74691448635530122</v>
       </c>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>2008</v>
       </c>
@@ -918,7 +2349,7 @@
         <v>-1.1939889748818047</v>
       </c>
     </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>2009</v>
       </c>
@@ -951,7 +2382,7 @@
         <v>0.66342912354249961</v>
       </c>
     </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>2010</v>
       </c>
@@ -984,7 +2415,7 @@
         <v>0.49486714123190012</v>
       </c>
     </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>2011</v>
       </c>
@@ -1017,7 +2448,7 @@
         <v>-0.11466857549869758</v>
       </c>
     </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>2012</v>
       </c>
@@ -1050,7 +2481,7 @@
         <v>-0.6104815647926003</v>
       </c>
     </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>2013</v>
       </c>
@@ -1083,7 +2514,7 @@
         <v>5.13270102155019E-2</v>
       </c>
     </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>2014</v>
       </c>
@@ -1115,8 +2546,23 @@
         <f t="shared" si="4"/>
         <v>0.2917589080621994</v>
       </c>
+      <c r="N25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>2015</v>
       </c>
@@ -1148,8 +2594,24 @@
         <f t="shared" si="4"/>
         <v>1.8105506361125023</v>
       </c>
+      <c r="O26">
+        <f>SLOPE(F6:F30,$E$6:$E$30)</f>
+        <v>9.2446443255933139E-2</v>
+      </c>
+      <c r="P26">
+        <f>SLOPE(G6:G30,$E$6:$E$30)</f>
+        <v>7.1341999414166149E-2</v>
+      </c>
+      <c r="Q26">
+        <f>SLOPE(H6:H30,$E$6:$E$30)</f>
+        <v>5.197278028529758E-2</v>
+      </c>
+      <c r="R26">
+        <f>SLOPE(I6:I30,$E$6:$E$30)</f>
+        <v>8.6996536491236398E-2</v>
+      </c>
     </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>2016</v>
       </c>
@@ -1182,7 +2644,7 @@
         <v>0.17288475680739879</v>
       </c>
     </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>2017</v>
       </c>
@@ -1215,7 +2677,7 @@
         <v>-0.95174184398080541</v>
       </c>
     </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>2018</v>
       </c>
@@ -1248,7 +2710,7 @@
         <v>-0.98197470904379713</v>
       </c>
     </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>2019</v>
       </c>
@@ -1281,7 +2743,7 @@
         <v>0.43218663476140051</v>
       </c>
     </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>6</v>
       </c>
@@ -1298,11 +2760,11 @@
         <v>0.17533411320819425</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" ref="G31:I31" si="6">I30-I6</f>
+        <f t="shared" ref="I31" si="6">I30-I6</f>
         <v>2.0110370651959997</v>
       </c>
     </row>
-    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>5</v>
       </c>
@@ -1326,5 +2788,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/exel.xlsx
+++ b/exel.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Google Drive\Tareas\Patos\proyecto\daily_temp_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5D2D42-4479-43A5-B0CB-21760527C740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB782A-881C-4069-A550-D23DDED3DEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13290" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
+    <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="ciudades con mayor variacion" sheetId="2" r:id="rId2"/>
+    <sheet name="variacion por region" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ciudades con mayor variacion'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Spring</t>
   </si>
@@ -71,6 +76,42 @@
   <si>
     <t>Pendientes</t>
   </si>
+  <si>
+    <t>Años</t>
+  </si>
+  <si>
+    <t>Great Falls, US</t>
+  </si>
+  <si>
+    <t>Rabat, Morocco</t>
+  </si>
+  <si>
+    <t>Rapid City, US</t>
+  </si>
+  <si>
+    <t>Pocatello, US</t>
+  </si>
+  <si>
+    <t>Ulan-bator, Mongolia</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>South/Central America &amp; Carribean</t>
+  </si>
 </sst>
 </file>
 
@@ -94,12 +135,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,11 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,7 +1014,1068 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.1216097987751528E-2"/>
+          <c:y val="4.0018184354637311E-2"/>
+          <c:w val="0.6725873208156673"/>
+          <c:h val="0.87558612890094945"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Asia</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'variacion por region'!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$C$4:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>80.0313616139548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.711374526662894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.7801820958028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.516486869498195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.095655026920298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.709487315659203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.306054671605395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.540473701748098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.835507995545996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.3292667294848</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.904223951078606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.835797527413504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81.0461640283539</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.4998020899327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.683666867083105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.124501606735706</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.832496704796895</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.843605503419596</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80.627316043552298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80.889043886509796</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81.064062477453902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81.224354600128905</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.225135844686704</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81.276868156764806</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81.286304666281893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A783-43DE-B247-227F5BA03283}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'variacion por region'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Africa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$D$4:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>78.231382227414699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.454973110588597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.5572240445521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.792996079263006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.287560715453296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.400939260604005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.938597723932901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.616704831679797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.339243171761396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.167524396129707</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.065499728838404</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.561778081538606</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.935020905722396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.598198784439404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.051868122238503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.5960960502739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.058656163712101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78.0990249661684</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.865755117924905</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.240085450522102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78.684111607298803</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78.308564386467694</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.639543383890697</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.278481902068904</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.404506855272601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A783-43DE-B247-227F5BA03283}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'variacion por region'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Europe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$E$4:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>67.710748037389195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.638863233429404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.2905220654754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.459962778378099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.963025846897395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.605592613161406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.929280984915906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.334858678969198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.432888775833305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.274662809818395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.430496434261002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.221461791323804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.940060840972606</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.411558033090699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.836100463200495</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.392030807666998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.028748397519095</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.741735002220295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.544343179932</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.329641605516102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.177878924458298</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.530943292959094</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.081450795044503</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.886199887999894</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>68.691989590902395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A783-43DE-B247-227F5BA03283}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'variacion por region'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Middle East</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$F$4:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>86.406103650861695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.411017579125996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.941339012369397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.7200836979694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.2615318720391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.1285953426042</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.855285856624803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.999350680933304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.999843972335498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.213228387907705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.737274865947299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.615612576731294</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.671713681466898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.011073627616994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.197238475209005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.080936454211596</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.844801311863705</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.333273578866098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.277573206434695</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.860657204272002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.829121398925693</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90.257047032349803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.546140007275397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90.090832687005701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90.205439677372397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A783-43DE-B247-227F5BA03283}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'variacion por region'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>North America</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$G$4:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>74.454041891533706</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.198740829365704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.790770335428206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.347178744922402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.063845145466303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.402700127882497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.176596293897703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.028798340515095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.976564393898599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.402211107166394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.069940553722802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.181764660792595</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.691197308029999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.047816201156095</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.099774726094793</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.533175010673801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.953327615825302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.611993163028203</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.276082937640595</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.051303161547807</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.065753667765506</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76.221939064723301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>74.801593232201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.889222880779698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75.209696205764601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A783-43DE-B247-227F5BA03283}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'variacion por region'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>South/Central America &amp; Carribean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$H$4:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>76.978359011136504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.521848761643696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.168699833975495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.141269977508998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.095381060593596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.271644031300198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.120714848446696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.800895423319801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.356158376788798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.969167945824395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.824749694191098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.133157524563003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.492997704482605</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.366000049297597</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.844868016732406</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.669157423641195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.3849470366508</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77.736862914577401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.507773315182504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77.740285926350396</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78.919874794233195</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78.551484334468796</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.382372484071695</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77.509848495123705</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.106841158222494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A783-43DE-B247-227F5BA03283}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1513613375"/>
+        <c:axId val="1513614623"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1513613375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1513614623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1513614623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1513613375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7523194696816744"/>
+          <c:y val="0.28192882492345123"/>
+          <c:w val="0.22674035937815465"/>
+          <c:h val="0.45433243395065992"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1522,6 +2631,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1543,6 +3168,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC98AC8-8ED2-4D00-A0D0-7E4111BBA127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B121D9B-57D1-4E21-88B9-B36E68E87560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C714A26-8582-4DED-B929-AA40AE456B7C}">
   <dimension ref="E5:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,7 +4447,7 @@
         <v>2.6995093814796007</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="7"/>
+        <f>MAX(I6:I30)-MIN(I6:I30)</f>
         <v>4.1145140708227004</v>
       </c>
     </row>
@@ -2790,4 +4456,1275 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC960B77-A31D-4679-BF7E-2B47567D8405}">
+  <dimension ref="B3:N28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1995</v>
+      </c>
+      <c r="C4">
+        <v>61.410869805709098</v>
+      </c>
+      <c r="D4">
+        <v>72.289130335268695</v>
+      </c>
+      <c r="E4">
+        <v>68.864130393318504</v>
+      </c>
+      <c r="F4">
+        <v>65.234782426253602</v>
+      </c>
+      <c r="G4">
+        <v>61.186956115390899</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1996</v>
+      </c>
+      <c r="C5">
+        <v>67.101234530225199</v>
+      </c>
+      <c r="D5">
+        <v>71.8326085961383</v>
+      </c>
+      <c r="E5">
+        <v>69.955434965050699</v>
+      </c>
+      <c r="F5">
+        <v>68.733333757188504</v>
+      </c>
+      <c r="G5">
+        <v>59.881318815461803</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1997</v>
+      </c>
+      <c r="C6">
+        <v>63.776086724322703</v>
+      </c>
+      <c r="D6">
+        <v>70.613043577774704</v>
+      </c>
+      <c r="E6">
+        <v>68.256522012793496</v>
+      </c>
+      <c r="F6">
+        <v>66.516304430754204</v>
+      </c>
+      <c r="G6">
+        <v>62.5615384028508</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1998</v>
+      </c>
+      <c r="C7">
+        <v>64.854348182678194</v>
+      </c>
+      <c r="D7">
+        <v>72.057608562967005</v>
+      </c>
+      <c r="E7">
+        <v>67.909782616988394</v>
+      </c>
+      <c r="F7">
+        <v>67.602174095485495</v>
+      </c>
+      <c r="G7">
+        <v>61.126373165256297</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1999</v>
+      </c>
+      <c r="C8">
+        <v>63.817391063856</v>
+      </c>
+      <c r="D8">
+        <v>71.721739354340897</v>
+      </c>
+      <c r="E8">
+        <v>68.439130534296396</v>
+      </c>
+      <c r="F8">
+        <v>67.034782451132003</v>
+      </c>
+      <c r="G8">
+        <v>63.716304447339901</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>66.367391171662703</v>
+      </c>
+      <c r="D9">
+        <v>72.271739130434696</v>
+      </c>
+      <c r="E9">
+        <v>70.411956621252898</v>
+      </c>
+      <c r="F9">
+        <v>70.715217714724304</v>
+      </c>
+      <c r="G9">
+        <v>65.372825871343196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2001</v>
+      </c>
+      <c r="C10">
+        <v>67.256521805473</v>
+      </c>
+      <c r="D10">
+        <v>70.956521490345807</v>
+      </c>
+      <c r="E10">
+        <v>71.085869706195297</v>
+      </c>
+      <c r="F10">
+        <v>69.789130459660996</v>
+      </c>
+      <c r="G10">
+        <v>64.568478376968997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2002</v>
+      </c>
+      <c r="C11">
+        <v>64.352873352752297</v>
+      </c>
+      <c r="D11">
+        <v>69.781818173148395</v>
+      </c>
+      <c r="E11">
+        <v>73.447727376764405</v>
+      </c>
+      <c r="F11">
+        <v>69.340908874164896</v>
+      </c>
+      <c r="G11">
+        <v>67.434090701016501</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2003</v>
+      </c>
+      <c r="C12">
+        <v>68.857608629309595</v>
+      </c>
+      <c r="D12">
+        <v>73.120652157327399</v>
+      </c>
+      <c r="E12">
+        <v>72.3500000497569</v>
+      </c>
+      <c r="F12">
+        <v>72.078260794929804</v>
+      </c>
+      <c r="G12">
+        <v>61.161956413932401</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2004</v>
+      </c>
+      <c r="C13">
+        <v>63.510869565217298</v>
+      </c>
+      <c r="D13">
+        <v>73.735869366189704</v>
+      </c>
+      <c r="E13">
+        <v>67.772826236227203</v>
+      </c>
+      <c r="F13">
+        <v>67.478260869565204</v>
+      </c>
+      <c r="G13">
+        <v>65.302173821822393</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2005</v>
+      </c>
+      <c r="C14">
+        <v>64.719565184220002</v>
+      </c>
+      <c r="D14">
+        <v>72.889130219169203</v>
+      </c>
+      <c r="E14">
+        <v>71.375000248784602</v>
+      </c>
+      <c r="F14">
+        <v>67.482608795166001</v>
+      </c>
+      <c r="G14">
+        <v>66.311956364175501</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2006</v>
+      </c>
+      <c r="C15">
+        <v>68.491304439047099</v>
+      </c>
+      <c r="D15">
+        <v>73.396739130434696</v>
+      </c>
+      <c r="E15">
+        <v>74.583695784859003</v>
+      </c>
+      <c r="F15">
+        <v>70.414130666981507</v>
+      </c>
+      <c r="G15">
+        <v>63.640217407889899</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2007</v>
+      </c>
+      <c r="C16">
+        <v>69.856043930892099</v>
+      </c>
+      <c r="D16">
+        <v>71.245055272028907</v>
+      </c>
+      <c r="E16">
+        <v>74.568131876515807</v>
+      </c>
+      <c r="F16">
+        <v>71.397802080426899</v>
+      </c>
+      <c r="G16">
+        <v>68.349450121869097</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2008</v>
+      </c>
+      <c r="C17">
+        <v>65.390110099708593</v>
+      </c>
+      <c r="D17">
+        <v>71.325274708506797</v>
+      </c>
+      <c r="E17">
+        <v>68.295603951255003</v>
+      </c>
+      <c r="F17">
+        <v>69.020651734393496</v>
+      </c>
+      <c r="G17">
+        <v>65.5391303767328</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2009</v>
+      </c>
+      <c r="C18">
+        <v>63.734782675038197</v>
+      </c>
+      <c r="D18">
+        <v>72.976086989693002</v>
+      </c>
+      <c r="E18">
+        <v>65.389130094776903</v>
+      </c>
+      <c r="F18">
+        <v>65.579348025114598</v>
+      </c>
+      <c r="G18">
+        <v>63.751086939936101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2010</v>
+      </c>
+      <c r="C19">
+        <v>63.093478534532601</v>
+      </c>
+      <c r="D19">
+        <v>72.502173589623496</v>
+      </c>
+      <c r="E19">
+        <v>68.480434583581001</v>
+      </c>
+      <c r="F19">
+        <v>67.019565043241997</v>
+      </c>
+      <c r="G19">
+        <v>63.539130335268702</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2011</v>
+      </c>
+      <c r="C20">
+        <v>65.613043619238795</v>
+      </c>
+      <c r="D20">
+        <v>72.351086823836596</v>
+      </c>
+      <c r="E20">
+        <v>70.038043312404398</v>
+      </c>
+      <c r="F20">
+        <v>67.467391221419604</v>
+      </c>
+      <c r="G20">
+        <v>62.328261085178497</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2012</v>
+      </c>
+      <c r="C21">
+        <v>68.777173539866496</v>
+      </c>
+      <c r="D21">
+        <v>70.884782791137695</v>
+      </c>
+      <c r="E21">
+        <v>73.806521788887295</v>
+      </c>
+      <c r="F21">
+        <v>70.841304530268104</v>
+      </c>
+      <c r="G21">
+        <v>60.206521573274003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2013</v>
+      </c>
+      <c r="C22">
+        <v>67.021739835324496</v>
+      </c>
+      <c r="D22">
+        <v>71.587911794473797</v>
+      </c>
+      <c r="E22">
+        <v>69.9043476685233</v>
+      </c>
+      <c r="F22">
+        <v>71.954347651937695</v>
+      </c>
+      <c r="G22">
+        <v>60.457608720530601</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2014</v>
+      </c>
+      <c r="C23">
+        <v>65.281522004500601</v>
+      </c>
+      <c r="D23">
+        <v>70.285869930101398</v>
+      </c>
+      <c r="E23">
+        <v>66.7510873960412</v>
+      </c>
+      <c r="F23">
+        <v>68.590217300083296</v>
+      </c>
+      <c r="G23">
+        <v>60.347825796707802</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2015</v>
+      </c>
+      <c r="C24">
+        <v>68.269565001777906</v>
+      </c>
+      <c r="D24">
+        <v>72.883695768273398</v>
+      </c>
+      <c r="E24">
+        <v>69.409782699916605</v>
+      </c>
+      <c r="F24">
+        <v>70.122825622558594</v>
+      </c>
+      <c r="G24">
+        <v>64.266304306361903</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2016</v>
+      </c>
+      <c r="C25">
+        <v>66.002174087192699</v>
+      </c>
+      <c r="D25">
+        <v>73.156521506931398</v>
+      </c>
+      <c r="E25">
+        <v>70.734782343325406</v>
+      </c>
+      <c r="F25">
+        <v>70.083695660466702</v>
+      </c>
+      <c r="G25">
+        <v>63.684782650159697</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="str">
+        <f>C3</f>
+        <v>Great Falls, US</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" ref="K25:N25" si="0">D3</f>
+        <v>Rabat, Morocco</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>Rapid City, US</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>Pocatello, US</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ulan-bator, Mongolia</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2017</v>
+      </c>
+      <c r="C26">
+        <v>68.870652115863294</v>
+      </c>
+      <c r="D26">
+        <v>72.774999867314804</v>
+      </c>
+      <c r="E26">
+        <v>71.114130600639001</v>
+      </c>
+      <c r="F26">
+        <v>70.654347751451496</v>
+      </c>
+      <c r="G26">
+        <v>64.343478534532593</v>
+      </c>
+      <c r="J26">
+        <f>SLOPE(C4:C28,$B$4:$B$28)</f>
+        <v>0.101904844782575</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26:N26" si="1">SLOPE(D4:D28,$B$4:$B$28)</f>
+        <v>-1.9499863294573896E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>-3.0917724306588082E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>9.1430993437497235E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>-6.2485637863757019E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2018</v>
+      </c>
+      <c r="C27">
+        <v>67.157608737116206</v>
+      </c>
+      <c r="D27">
+        <v>70.2043476934018</v>
+      </c>
+      <c r="E27">
+        <v>68.052173987678799</v>
+      </c>
+      <c r="F27">
+        <v>69.672825771829295</v>
+      </c>
+      <c r="G27">
+        <v>62.796739122141901</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2019</v>
+      </c>
+      <c r="C28">
+        <v>64.840217383011506</v>
+      </c>
+      <c r="D28">
+        <v>69.375</v>
+      </c>
+      <c r="E28">
+        <v>66.804347660230505</v>
+      </c>
+      <c r="F28">
+        <v>68.527173622794706</v>
+      </c>
+      <c r="G28">
+        <v>62.385869440824997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76788943-DE84-49BB-981C-A0946E7660AB}">
+  <dimension ref="B3:P28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1995</v>
+      </c>
+      <c r="C4">
+        <v>80.0313616139548</v>
+      </c>
+      <c r="D4">
+        <v>78.231382227414699</v>
+      </c>
+      <c r="E4">
+        <v>67.710748037389195</v>
+      </c>
+      <c r="F4">
+        <v>86.406103650861695</v>
+      </c>
+      <c r="G4">
+        <v>74.454041891533706</v>
+      </c>
+      <c r="H4">
+        <v>76.978359011136504</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1996</v>
+      </c>
+      <c r="C5">
+        <v>79.711374526662894</v>
+      </c>
+      <c r="D5">
+        <v>77.454973110588597</v>
+      </c>
+      <c r="E5">
+        <v>66.638863233429404</v>
+      </c>
+      <c r="F5">
+        <v>87.411017579125996</v>
+      </c>
+      <c r="G5">
+        <v>73.198740829365704</v>
+      </c>
+      <c r="H5">
+        <v>77.521848761643696</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1997</v>
+      </c>
+      <c r="C6">
+        <v>80.7801820958028</v>
+      </c>
+      <c r="D6">
+        <v>77.5572240445521</v>
+      </c>
+      <c r="E6">
+        <v>67.2905220654754</v>
+      </c>
+      <c r="F6">
+        <v>85.941339012369397</v>
+      </c>
+      <c r="G6">
+        <v>72.790770335428206</v>
+      </c>
+      <c r="H6">
+        <v>78.168699833975495</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1998</v>
+      </c>
+      <c r="C7">
+        <v>80.516486869498195</v>
+      </c>
+      <c r="D7">
+        <v>77.792996079263006</v>
+      </c>
+      <c r="E7">
+        <v>67.459962778378099</v>
+      </c>
+      <c r="F7">
+        <v>88.7200836979694</v>
+      </c>
+      <c r="G7">
+        <v>74.347178744922402</v>
+      </c>
+      <c r="H7">
+        <v>78.141269977508998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1999</v>
+      </c>
+      <c r="C8">
+        <v>80.095655026920298</v>
+      </c>
+      <c r="D8">
+        <v>78.287560715453296</v>
+      </c>
+      <c r="E8">
+        <v>67.963025846897395</v>
+      </c>
+      <c r="F8">
+        <v>88.2615318720391</v>
+      </c>
+      <c r="G8">
+        <v>74.063845145466303</v>
+      </c>
+      <c r="H8">
+        <v>77.095381060593596</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>80.709487315659203</v>
+      </c>
+      <c r="D9">
+        <v>77.400939260604005</v>
+      </c>
+      <c r="E9">
+        <v>67.605592613161406</v>
+      </c>
+      <c r="F9">
+        <v>88.1285953426042</v>
+      </c>
+      <c r="G9">
+        <v>73.402700127882497</v>
+      </c>
+      <c r="H9">
+        <v>77.271644031300198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2001</v>
+      </c>
+      <c r="C10">
+        <v>80.306054671605395</v>
+      </c>
+      <c r="D10">
+        <v>77.938597723932901</v>
+      </c>
+      <c r="E10">
+        <v>67.929280984915906</v>
+      </c>
+      <c r="F10">
+        <v>87.855285856624803</v>
+      </c>
+      <c r="G10">
+        <v>74.176596293897703</v>
+      </c>
+      <c r="H10">
+        <v>78.120714848446696</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2002</v>
+      </c>
+      <c r="C11">
+        <v>80.540473701748098</v>
+      </c>
+      <c r="D11">
+        <v>78.616704831679797</v>
+      </c>
+      <c r="E11">
+        <v>68.334858678969198</v>
+      </c>
+      <c r="F11">
+        <v>87.999350680933304</v>
+      </c>
+      <c r="G11">
+        <v>75.028798340515095</v>
+      </c>
+      <c r="H11">
+        <v>78.800895423319801</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2003</v>
+      </c>
+      <c r="C12">
+        <v>79.835507995545996</v>
+      </c>
+      <c r="D12">
+        <v>79.339243171761396</v>
+      </c>
+      <c r="E12">
+        <v>70.432888775833305</v>
+      </c>
+      <c r="F12">
+        <v>87.999843972335498</v>
+      </c>
+      <c r="G12">
+        <v>73.976564393898599</v>
+      </c>
+      <c r="H12">
+        <v>78.356158376788798</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2004</v>
+      </c>
+      <c r="C13">
+        <v>80.3292667294848</v>
+      </c>
+      <c r="D13">
+        <v>79.167524396129707</v>
+      </c>
+      <c r="E13">
+        <v>67.274662809818395</v>
+      </c>
+      <c r="F13">
+        <v>87.213228387907705</v>
+      </c>
+      <c r="G13">
+        <v>72.402211107166394</v>
+      </c>
+      <c r="H13">
+        <v>77.969167945824395</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2005</v>
+      </c>
+      <c r="C14">
+        <v>80.904223951078606</v>
+      </c>
+      <c r="D14">
+        <v>78.065499728838404</v>
+      </c>
+      <c r="E14">
+        <v>67.430496434261002</v>
+      </c>
+      <c r="F14">
+        <v>87.737274865947299</v>
+      </c>
+      <c r="G14">
+        <v>75.069940553722802</v>
+      </c>
+      <c r="H14">
+        <v>78.824749694191098</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2006</v>
+      </c>
+      <c r="C15">
+        <v>80.835797527413504</v>
+      </c>
+      <c r="D15">
+        <v>78.561778081538606</v>
+      </c>
+      <c r="E15">
+        <v>68.221461791323804</v>
+      </c>
+      <c r="F15">
+        <v>88.615612576731294</v>
+      </c>
+      <c r="G15">
+        <v>75.181764660792595</v>
+      </c>
+      <c r="H15">
+        <v>78.133157524563003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2007</v>
+      </c>
+      <c r="C16">
+        <v>81.0461640283539</v>
+      </c>
+      <c r="D16">
+        <v>77.935020905722396</v>
+      </c>
+      <c r="E16">
+        <v>67.940060840972606</v>
+      </c>
+      <c r="F16">
+        <v>88.671713681466898</v>
+      </c>
+      <c r="G16">
+        <v>74.691197308029999</v>
+      </c>
+      <c r="H16">
+        <v>77.492997704482605</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2008</v>
+      </c>
+      <c r="C17">
+        <v>80.4998020899327</v>
+      </c>
+      <c r="D17">
+        <v>78.598198784439404</v>
+      </c>
+      <c r="E17">
+        <v>67.411558033090699</v>
+      </c>
+      <c r="F17">
+        <v>89.011073627616994</v>
+      </c>
+      <c r="G17">
+        <v>74.047816201156095</v>
+      </c>
+      <c r="H17">
+        <v>77.366000049297597</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2009</v>
+      </c>
+      <c r="C18">
+        <v>80.683666867083105</v>
+      </c>
+      <c r="D18">
+        <v>79.051868122238503</v>
+      </c>
+      <c r="E18">
+        <v>67.836100463200495</v>
+      </c>
+      <c r="F18">
+        <v>89.197238475209005</v>
+      </c>
+      <c r="G18">
+        <v>73.099774726094793</v>
+      </c>
+      <c r="H18">
+        <v>78.844868016732406</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2010</v>
+      </c>
+      <c r="C19">
+        <v>81.124501606735706</v>
+      </c>
+      <c r="D19">
+        <v>78.5960960502739</v>
+      </c>
+      <c r="E19">
+        <v>68.392030807666998</v>
+      </c>
+      <c r="F19">
+        <v>90.080936454211596</v>
+      </c>
+      <c r="G19">
+        <v>75.533175010673801</v>
+      </c>
+      <c r="H19">
+        <v>78.669157423641195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2011</v>
+      </c>
+      <c r="C20">
+        <v>80.832496704796895</v>
+      </c>
+      <c r="D20">
+        <v>78.058656163712101</v>
+      </c>
+      <c r="E20">
+        <v>67.028748397519095</v>
+      </c>
+      <c r="F20">
+        <v>88.844801311863705</v>
+      </c>
+      <c r="G20">
+        <v>75.953327615825302</v>
+      </c>
+      <c r="H20">
+        <v>78.3849470366508</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2012</v>
+      </c>
+      <c r="C21">
+        <v>80.843605503419596</v>
+      </c>
+      <c r="D21">
+        <v>78.0990249661684</v>
+      </c>
+      <c r="E21">
+        <v>67.741735002220295</v>
+      </c>
+      <c r="F21">
+        <v>90.333273578866098</v>
+      </c>
+      <c r="G21">
+        <v>75.611993163028203</v>
+      </c>
+      <c r="H21">
+        <v>77.736862914577401</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2013</v>
+      </c>
+      <c r="C22">
+        <v>80.627316043552298</v>
+      </c>
+      <c r="D22">
+        <v>77.865755117924905</v>
+      </c>
+      <c r="E22">
+        <v>67.544343179932</v>
+      </c>
+      <c r="F22">
+        <v>88.277573206434695</v>
+      </c>
+      <c r="G22">
+        <v>74.276082937640595</v>
+      </c>
+      <c r="H22">
+        <v>77.507773315182504</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2014</v>
+      </c>
+      <c r="C23">
+        <v>80.889043886509796</v>
+      </c>
+      <c r="D23">
+        <v>78.240085450522102</v>
+      </c>
+      <c r="E23">
+        <v>66.329641605516102</v>
+      </c>
+      <c r="F23">
+        <v>88.860657204272002</v>
+      </c>
+      <c r="G23">
+        <v>74.051303161547807</v>
+      </c>
+      <c r="H23">
+        <v>77.740285926350396</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2015</v>
+      </c>
+      <c r="C24">
+        <v>81.064062477453902</v>
+      </c>
+      <c r="D24">
+        <v>78.684111607298803</v>
+      </c>
+      <c r="E24">
+        <v>68.177878924458298</v>
+      </c>
+      <c r="F24">
+        <v>89.829121398925693</v>
+      </c>
+      <c r="G24">
+        <v>75.065753667765506</v>
+      </c>
+      <c r="H24">
+        <v>78.919874794233195</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2016</v>
+      </c>
+      <c r="C25">
+        <v>81.224354600128905</v>
+      </c>
+      <c r="D25">
+        <v>78.308564386467694</v>
+      </c>
+      <c r="E25">
+        <v>67.530943292959094</v>
+      </c>
+      <c r="F25">
+        <v>90.257047032349803</v>
+      </c>
+      <c r="G25">
+        <v>76.221939064723301</v>
+      </c>
+      <c r="H25">
+        <v>78.551484334468796</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="str">
+        <f>C3</f>
+        <v>Asia</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" ref="L25:O25" si="0">D3</f>
+        <v>Africa</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>Europe</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>Middle East</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="0"/>
+        <v>North America</v>
+      </c>
+      <c r="P25" t="str">
+        <f>H3</f>
+        <v>South/Central America &amp; Carribean</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2017</v>
+      </c>
+      <c r="C26">
+        <v>81.225135844686704</v>
+      </c>
+      <c r="D26">
+        <v>78.639543383890697</v>
+      </c>
+      <c r="E26">
+        <v>68.081450795044503</v>
+      </c>
+      <c r="F26">
+        <v>90.546140007275397</v>
+      </c>
+      <c r="G26">
+        <v>74.801593232201</v>
+      </c>
+      <c r="H26">
+        <v>78.382372484071695</v>
+      </c>
+      <c r="K26">
+        <f>SLOPE(C4:C28,$B$4:$B$28)</f>
+        <v>4.7033866405467674E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:P26" si="1">SLOPE(D4:D28,$B$4:$B$28)</f>
+        <v>2.1379154091791183E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>1.7148063771239053E-2</v>
+      </c>
+      <c r="N26">
+        <f>SLOPE(F4:F28,$B$4:$B$28)</f>
+        <v>0.14009039086539468</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>7.9952518503593015E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>2.2773286292922159E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2018</v>
+      </c>
+      <c r="C27">
+        <v>81.276868156764806</v>
+      </c>
+      <c r="D27">
+        <v>78.278481902068904</v>
+      </c>
+      <c r="E27">
+        <v>68.886199887999894</v>
+      </c>
+      <c r="F27">
+        <v>90.090832687005701</v>
+      </c>
+      <c r="G27">
+        <v>75.889222880779698</v>
+      </c>
+      <c r="H27">
+        <v>77.509848495123705</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2019</v>
+      </c>
+      <c r="C28">
+        <v>81.286304666281893</v>
+      </c>
+      <c r="D28">
+        <v>78.404506855272601</v>
+      </c>
+      <c r="E28">
+        <v>68.691989590902395</v>
+      </c>
+      <c r="F28">
+        <v>90.205439677372397</v>
+      </c>
+      <c r="G28">
+        <v>75.209696205764601</v>
+      </c>
+      <c r="H28">
+        <v>78.106841158222494</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/exel.xlsx
+++ b/exel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Google Drive\Tareas\Patos\proyecto\daily_temp_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iggym\Documents\Procesamiento Masivo de Datos\Project\daily_temp_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB782A-881C-4069-A550-D23DDED3DEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBEEF94-7CFF-4F0B-9934-06755C8BB4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Spring</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>South/Central America &amp; Carribean</t>
+  </si>
+  <si>
+    <t>Avg total</t>
   </si>
 </sst>
 </file>
@@ -3526,10 +3529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C714A26-8582-4DED-B929-AA40AE456B7C}">
-  <dimension ref="E5:R32"/>
+  <dimension ref="D5:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,7 +3541,10 @@
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
@@ -3567,7 +3573,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>SUM(F6:I6)/4</f>
+        <v>63.956590158972574</v>
+      </c>
       <c r="E6">
         <v>1995</v>
       </c>
@@ -3586,7 +3596,11 @@
       <c r="J6" s="1"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" ref="D7:D30" si="0">SUM(F7:I7)/4</f>
+        <v>63.045467870364796</v>
+      </c>
       <c r="E7">
         <v>1996</v>
       </c>
@@ -3607,19 +3621,23 @@
         <v>-0.92082935909429864</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ref="K7:M22" si="0">G7-G6</f>
+        <f t="shared" ref="K7:M22" si="1">G7-G6</f>
         <v>-0.81240918143539886</v>
       </c>
       <c r="L7" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.3093035265379029</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.60194708736349867</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>-1.3093035265379029</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.60194708736349867</v>
-      </c>
-    </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+        <v>63.402785370641247</v>
+      </c>
       <c r="E8">
         <v>1997</v>
       </c>
@@ -3636,23 +3654,27 @@
         <v>60.182247880209196</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ref="J8:J30" si="1">F8-F7</f>
+        <f t="shared" ref="J8:J30" si="2">F8-F7</f>
         <v>0.38041909702180021</v>
       </c>
       <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.14267765052549919</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48570475346590314</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.70582380114359466</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>-0.14267765052549919</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48570475346590314</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.70582380114359466</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.473476303588299</v>
+      </c>
       <c r="E9">
         <v>1998</v>
       </c>
@@ -3669,23 +3691,27 @@
         <v>61.842077893741497</v>
       </c>
       <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4767123077626962</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1.4767123077626962</v>
-      </c>
-      <c r="K9" s="2">
+        <v>1.0884326719451991</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7788738547998264E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6598300135323001</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>1.0884326719451991</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7788738547998264E-2</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6598300135323001</v>
-      </c>
-    </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.044741461732698</v>
+      </c>
       <c r="E10">
         <v>1999</v>
       </c>
@@ -3702,23 +3728,27 @@
         <v>61.4693003229279</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.44652655198269997</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-0.44652655198269997</v>
-      </c>
-      <c r="K10" s="2">
+        <v>-0.1900935463796003</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.70554169824649904</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.37277757081359653</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>-0.1900935463796003</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.70554169824649904</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.37277757081359653</v>
-      </c>
-    </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
+        <v>63.687772878776627</v>
+      </c>
       <c r="E11">
         <v>2000</v>
       </c>
@@ -3735,23 +3765,27 @@
         <v>60.275093639639003</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2444669838610025</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>1.2444669838610025</v>
-      </c>
-      <c r="K11" s="2">
+        <v>-0.42531109689549851</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.0528235355009059</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.1942066832888969</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>-0.42531109689549851</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.0528235355009059</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.1942066832888969</v>
-      </c>
-    </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.147221077506956</v>
+      </c>
       <c r="E12">
         <v>2001</v>
       </c>
@@ -3768,23 +3802,27 @@
         <v>61.674941518395102</v>
       </c>
       <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.71767385579290277</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-0.71767385579290277</v>
-      </c>
-      <c r="K12" s="2">
+        <v>0.61444078328010221</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54117798867800104</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3998478787560984</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.61444078328010221</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54117798867800104</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3998478787560984</v>
-      </c>
-    </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.159145784015649</v>
+      </c>
       <c r="E13">
         <v>2002</v>
       </c>
@@ -3801,23 +3839,27 @@
         <v>60.798859888140001</v>
       </c>
       <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.26560387698409471</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-0.26560387698409471</v>
-      </c>
-      <c r="K13" s="2">
+        <v>0.64424612346618915</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54513820980780281</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.87608163025510066</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.64424612346618915</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54513820980780281</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.87608163025510066</v>
-      </c>
-    </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.279317020359571</v>
+      </c>
       <c r="E14">
         <v>2003</v>
       </c>
@@ -3834,23 +3876,27 @@
         <v>61.3824094235231</v>
       </c>
       <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8158634572499182E-2</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>9.8158634572499182E-2</v>
-      </c>
-      <c r="K14" s="2">
+        <v>-0.36317600781779902</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16215278323790017</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58354953538309928</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D15">
         <f t="shared" si="0"/>
-        <v>-0.36317600781779902</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16215278323790017</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58354953538309928</v>
-      </c>
-    </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.235955481029023</v>
+      </c>
       <c r="E15">
         <v>2004</v>
       </c>
@@ -3867,23 +3913,27 @@
         <v>62.004777261934201</v>
       </c>
       <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.92737520845869881</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>0.92737520845869881</v>
-      </c>
-      <c r="K15" s="2">
+        <v>-1.4212239020099986</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.30196530218199769</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6223678384111011</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D16">
         <f t="shared" si="0"/>
-        <v>-1.4212239020099986</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.30196530218199769</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.6223678384111011</v>
-      </c>
-    </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.5850641119969</v>
+      </c>
       <c r="E16">
         <v>2005</v>
       </c>
@@ -3900,23 +3950,27 @@
         <v>62.445541989067898</v>
       </c>
       <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.2234729689877</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2234729689877</v>
-      </c>
-      <c r="K16" s="2">
+        <v>1.7189601365007974</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46018262922469688</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44076472713369697</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D17">
         <f t="shared" si="0"/>
-        <v>1.7189601365007974</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46018262922469688</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.44076472713369697</v>
-      </c>
-    </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
+        <v>64.690302885651789</v>
+      </c>
       <c r="E17">
         <v>2006</v>
       </c>
@@ -3933,23 +3987,27 @@
         <v>61.278345202734101</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2127003167889967</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>1.2127003167889967</v>
-      </c>
-      <c r="K17" s="2">
+        <v>0.21432569370109888</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16112587046330162</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.1671967863337969</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.21432569370109888</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16112587046330162</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.1671967863337969</v>
-      </c>
-    </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
+        <v>64.753292098406973</v>
+      </c>
       <c r="E18">
         <v>2007</v>
       </c>
@@ -3966,23 +4024,27 @@
         <v>62.025259689089403</v>
       </c>
       <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.29087163100380309</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>0.29087163100380309</v>
-      </c>
-      <c r="K18" s="2">
+        <v>-0.36881569326449437</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.41701357307390197</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74691448635530122</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D19">
         <f t="shared" si="0"/>
-        <v>-0.36881569326449437</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.41701357307390197</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.74691448635530122</v>
-      </c>
-    </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
+        <v>64.097077648430044</v>
+      </c>
       <c r="E19">
         <v>2008</v>
       </c>
@@ -3999,23 +4061,27 @@
         <v>60.831270714207598</v>
       </c>
       <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.2687014703455972</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2687014703455972</v>
-      </c>
-      <c r="K19" s="2">
+        <v>-0.52769765677899727</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36553030209869775</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.1939889748818047</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D20">
         <f t="shared" si="0"/>
-        <v>-0.52769765677899727</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.36553030209869775</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.1939889748818047</v>
-      </c>
-    </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
+        <v>64.362145247566971</v>
+      </c>
       <c r="E20">
         <v>2009</v>
       </c>
@@ -4032,23 +4098,27 @@
         <v>61.494699837750098</v>
       </c>
       <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.53608726316989674</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>0.53608726316989674</v>
-      </c>
-      <c r="K20" s="2">
+        <v>-0.31884392578079712</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17959793561610127</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66342912354249961</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D21">
         <f t="shared" si="0"/>
-        <v>-0.31884392578079712</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17959793561610127</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66342912354249961</v>
-      </c>
-    </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
+        <v>65.096803861565348</v>
+      </c>
       <c r="E21">
         <v>2010</v>
       </c>
@@ -4065,23 +4135,27 @@
         <v>61.989566978981998</v>
       </c>
       <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.945387816888001</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0.945387816888001</v>
-      </c>
-      <c r="K21" s="2">
+        <v>1.5866149541843981</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.8235456310798099E-2</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49486714123190012</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D22">
         <f t="shared" si="0"/>
-        <v>1.5866149541843981</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.8235456310798099E-2</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49486714123190012</v>
-      </c>
-    </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
+        <v>64.917190311842035</v>
+      </c>
       <c r="E22">
         <v>2011</v>
       </c>
@@ -4098,23 +4172,27 @@
         <v>61.8748984034833</v>
       </c>
       <c r="J22" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.82830118614509729</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-0.82830118614509729</v>
-      </c>
-      <c r="K22" s="2">
+        <v>-0.12082019817650291</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34533576092700002</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.11466857549869758</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D23">
         <f t="shared" si="0"/>
-        <v>-0.12082019817650291</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.34533576092700002</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.11466857549869758</v>
-      </c>
-    </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
+        <v>65.301739275584268</v>
+      </c>
       <c r="E23">
         <v>2012</v>
       </c>
@@ -4131,23 +4209,27 @@
         <v>61.2644168386907</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2490388460680961</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:K30" si="2">G23-G22</f>
+        <f t="shared" ref="K23:K30" si="3">G23-G22</f>
         <v>-1.8981846846003236E-2</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" ref="L23:L30" si="3">H23-H22</f>
+        <f t="shared" ref="L23:L30" si="4">H23-H22</f>
         <v>-8.1379579460502782E-2</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" ref="M23:M30" si="4">I23-I22</f>
+        <f t="shared" ref="M23:M30" si="5">I23-I22</f>
         <v>-0.6104815647926003</v>
       </c>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>64.300986981960833</v>
+      </c>
       <c r="E24">
         <v>2013</v>
       </c>
@@ -4164,23 +4246,27 @@
         <v>61.315743848906202</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.4762692833056974</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.93501827893699385</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35695137753339878</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.13270102155019E-2</v>
       </c>
     </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>64.612701463984706</v>
+      </c>
       <c r="E25">
         <v>2014</v>
       </c>
@@ -4197,19 +4283,19 @@
         <v>61.607502756968401</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69277635848320074</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.18571392198460046</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44803658353470155</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2917589080621994</v>
       </c>
       <c r="N25" t="s">
@@ -4228,7 +4314,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>65.635512331914157</v>
+      </c>
       <c r="E26">
         <v>2015</v>
       </c>
@@ -4245,19 +4335,19 @@
         <v>63.418053393080903</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4177834139008993</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0257296004834018</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.16282017877900046</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8105506361125023</v>
       </c>
       <c r="O26">
@@ -4277,7 +4367,11 @@
         <v>8.6996536491236398E-2</v>
       </c>
     </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>65.852710489289578</v>
+      </c>
       <c r="E27">
         <v>2016</v>
       </c>
@@ -4294,23 +4388,27 @@
         <v>63.590938149888302</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4919660138185975</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57173347644850026</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.36779161757279866</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17288475680739879</v>
       </c>
     </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>65.452312997562274</v>
+      </c>
       <c r="E28">
         <v>2017</v>
       </c>
@@ -4327,23 +4425,27 @@
         <v>62.639196305907497</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.7936402919501973E-2</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.78029698306660578</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18838526305770387</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.95174184398080541</v>
       </c>
     </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>65.047682853589649</v>
+      </c>
       <c r="E29">
         <v>2018</v>
       </c>
@@ -4360,23 +4462,27 @@
         <v>61.6572215968637</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.7429693324100981</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.69605216891079635</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.58962870334740103</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.98197470904379713</v>
       </c>
     </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>65.084283307324995</v>
+      </c>
       <c r="E30">
         <v>2019</v>
       </c>
@@ -4393,23 +4499,27 @@
         <v>62.0894082316251</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.78222665126499891</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.45828725658169844</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95472908802669565</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43218663476140051</v>
       </c>
     </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <f>D30-D6</f>
+        <v>1.1276931483524208</v>
+      </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
@@ -4418,19 +4528,23 @@
         <v>1.2332329525655013</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" ref="G31:H31" si="5">G30-G6</f>
+        <f t="shared" ref="G31:H31" si="6">G30-G6</f>
         <v>1.0911684624399953</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.17533411320819425</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" ref="I31" si="6">I30-I6</f>
+        <f t="shared" ref="I31" si="7">I30-I6</f>
         <v>2.0110370651959997</v>
       </c>
     </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D32" s="2">
+        <f>MAX(D6:D30)-MIN(D6:D30)</f>
+        <v>2.8072426189247821</v>
+      </c>
       <c r="E32" t="s">
         <v>5</v>
       </c>
@@ -4439,11 +4553,11 @@
         <v>4.6109381953573987</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" ref="G32:I32" si="7">MAX(G6:G30)-MIN(G6:G30)</f>
+        <f t="shared" ref="G32:H32" si="8">MAX(G6:G30)-MIN(G6:G30)</f>
         <v>2.6414723395498072</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6995093814796007</v>
       </c>
       <c r="I32" s="2">
@@ -4462,8 +4576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC960B77-A31D-4679-BF7E-2B47567D8405}">
   <dimension ref="B3:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5056,8 +5170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76788943-DE84-49BB-981C-A0946E7660AB}">
   <dimension ref="B3:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/exel.xlsx
+++ b/exel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Google Drive\Tareas\Patos\proyecto\daily_temp_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB782A-881C-4069-A550-D23DDED3DEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829B3CB9-F260-4EF5-9410-8CCAFBAAC748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Spring</t>
   </si>
@@ -111,6 +111,27 @@
   </si>
   <si>
     <t>South/Central America &amp; Carribean</t>
+  </si>
+  <si>
+    <t>Wichita Falls,US</t>
+  </si>
+  <si>
+    <t>San Angelo,US</t>
+  </si>
+  <si>
+    <t>Abilene,US</t>
+  </si>
+  <si>
+    <t>Oklahoma City,US</t>
+  </si>
+  <si>
+    <t>Moscow,Russia</t>
+  </si>
+  <si>
+    <t>Nicosia,Cyprus</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -4460,19 +4481,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC960B77-A31D-4679-BF7E-2B47567D8405}">
-  <dimension ref="B3:N28"/>
+  <dimension ref="B3:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
@@ -5046,6 +5067,706 @@
         <v>62.385869440824997</v>
       </c>
     </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1995</v>
+      </c>
+      <c r="C34">
+        <v>81.247826120127797</v>
+      </c>
+      <c r="D34">
+        <v>80.921738831893194</v>
+      </c>
+      <c r="E34">
+        <v>79.907608363939303</v>
+      </c>
+      <c r="F34">
+        <v>78.072826261105703</v>
+      </c>
+      <c r="G34">
+        <v>63.044565117877397</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1996</v>
+      </c>
+      <c r="C35">
+        <v>82.499999916160505</v>
+      </c>
+      <c r="D35">
+        <v>82.384444427490195</v>
+      </c>
+      <c r="E35">
+        <v>81.217441292696193</v>
+      </c>
+      <c r="F35">
+        <v>78.322222646077407</v>
+      </c>
+      <c r="G35">
+        <v>62.922826062078002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1997</v>
+      </c>
+      <c r="C36">
+        <v>80.930434600166606</v>
+      </c>
+      <c r="D36">
+        <v>80.6891304513682</v>
+      </c>
+      <c r="E36">
+        <v>79.678260886150795</v>
+      </c>
+      <c r="F36">
+        <v>78.096739312876807</v>
+      </c>
+      <c r="G36">
+        <v>64.206521697666304</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1998</v>
+      </c>
+      <c r="C37">
+        <v>86.4054350645645</v>
+      </c>
+      <c r="D37">
+        <v>83.835869747659402</v>
+      </c>
+      <c r="E37">
+        <v>84.538043644117195</v>
+      </c>
+      <c r="F37">
+        <v>84.569565026656406</v>
+      </c>
+      <c r="G37">
+        <v>62.994564927142598</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1999</v>
+      </c>
+      <c r="C38">
+        <v>84.297826020613897</v>
+      </c>
+      <c r="D38">
+        <v>82.278261018835906</v>
+      </c>
+      <c r="E38">
+        <v>82.818478708681795</v>
+      </c>
+      <c r="F38">
+        <v>80.718478244283901</v>
+      </c>
+      <c r="G38">
+        <v>66.427173863286498</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2000</v>
+      </c>
+      <c r="C39">
+        <v>85.340217507403807</v>
+      </c>
+      <c r="D39">
+        <v>84.244565632032305</v>
+      </c>
+      <c r="E39">
+        <v>83.391304264897798</v>
+      </c>
+      <c r="F39">
+        <v>80.106521938158096</v>
+      </c>
+      <c r="G39">
+        <v>61.9739129439644</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2001</v>
+      </c>
+      <c r="C40">
+        <v>85.517391453618501</v>
+      </c>
+      <c r="D40">
+        <v>84.655434484067101</v>
+      </c>
+      <c r="E40">
+        <v>83.971739312876807</v>
+      </c>
+      <c r="F40">
+        <v>81.563043760216701</v>
+      </c>
+      <c r="G40">
+        <v>64.104347975357697</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2002</v>
+      </c>
+      <c r="C41">
+        <v>81.610227498141199</v>
+      </c>
+      <c r="D41">
+        <v>82.005681818181799</v>
+      </c>
+      <c r="E41">
+        <v>80.418181766163201</v>
+      </c>
+      <c r="F41">
+        <v>78.8761360862038</v>
+      </c>
+      <c r="G41">
+        <v>65.431818225167007</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2003</v>
+      </c>
+      <c r="C42">
+        <v>82.692391271176504</v>
+      </c>
+      <c r="D42">
+        <v>81.011956256368805</v>
+      </c>
+      <c r="E42">
+        <v>80.580434799194293</v>
+      </c>
+      <c r="F42">
+        <v>80.147826153298993</v>
+      </c>
+      <c r="G42">
+        <v>61.266304181969602</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2004</v>
+      </c>
+      <c r="C43">
+        <v>78.760869565217305</v>
+      </c>
+      <c r="D43">
+        <v>79.614130600639001</v>
+      </c>
+      <c r="E43">
+        <v>77.930434931879404</v>
+      </c>
+      <c r="F43">
+        <v>76.464130650395902</v>
+      </c>
+      <c r="G43">
+        <v>62.611956306125798</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2005</v>
+      </c>
+      <c r="C44">
+        <v>82.218478161355705</v>
+      </c>
+      <c r="D44">
+        <v>80.430434600166606</v>
+      </c>
+      <c r="E44">
+        <v>80.566304331240403</v>
+      </c>
+      <c r="F44">
+        <v>79.526086724322695</v>
+      </c>
+      <c r="G44">
+        <v>63.121739304583997</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2006</v>
+      </c>
+      <c r="C45">
+        <v>86.518478061841805</v>
+      </c>
+      <c r="D45">
+        <v>83.780434649923507</v>
+      </c>
+      <c r="E45">
+        <v>83.315217474232497</v>
+      </c>
+      <c r="F45">
+        <v>83.734782094540805</v>
+      </c>
+      <c r="G45">
+        <v>63.216304364411698</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2007</v>
+      </c>
+      <c r="C46">
+        <v>81.179120493459095</v>
+      </c>
+      <c r="D46">
+        <v>78.130769079858098</v>
+      </c>
+      <c r="E46">
+        <v>78.092307876754504</v>
+      </c>
+      <c r="F46">
+        <v>79.716483650626699</v>
+      </c>
+      <c r="G46">
+        <v>65.289010687188707</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2008</v>
+      </c>
+      <c r="C47">
+        <v>85.189130534296396</v>
+      </c>
+      <c r="D47">
+        <v>82.425000066342506</v>
+      </c>
+      <c r="E47">
+        <v>81.774725190885704</v>
+      </c>
+      <c r="F47">
+        <v>81.226086823836596</v>
+      </c>
+      <c r="G47">
+        <v>62.7505493164062</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>2009</v>
+      </c>
+      <c r="C48">
+        <v>83.226086823836596</v>
+      </c>
+      <c r="D48">
+        <v>84.118478194527</v>
+      </c>
+      <c r="E48">
+        <v>83.081521822058605</v>
+      </c>
+      <c r="F48">
+        <v>80.465217258619205</v>
+      </c>
+      <c r="G48">
+        <v>62.583695867787199</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>2010</v>
+      </c>
+      <c r="C49">
+        <v>83.930434600166606</v>
+      </c>
+      <c r="D49">
+        <v>84.666304546853695</v>
+      </c>
+      <c r="E49">
+        <v>82.8086953370467</v>
+      </c>
+      <c r="F49">
+        <v>82.326086956521706</v>
+      </c>
+      <c r="G49">
+        <v>72.066304331240403</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2011</v>
+      </c>
+      <c r="C50">
+        <v>92.016304347826093</v>
+      </c>
+      <c r="D50">
+        <v>89.431521954743701</v>
+      </c>
+      <c r="E50">
+        <v>89.204347776329996</v>
+      </c>
+      <c r="F50">
+        <v>87.3565218552299</v>
+      </c>
+      <c r="G50">
+        <v>68.5739131595777</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2012</v>
+      </c>
+      <c r="C51">
+        <v>84.828260587609293</v>
+      </c>
+      <c r="D51">
+        <v>85.322825970856996</v>
+      </c>
+      <c r="E51">
+        <v>83.840217092762799</v>
+      </c>
+      <c r="F51">
+        <v>82.863043287525997</v>
+      </c>
+      <c r="G51">
+        <v>64.814130326975899</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>2013</v>
+      </c>
+      <c r="C52">
+        <v>82.867391337519095</v>
+      </c>
+      <c r="D52">
+        <v>83.299999734629694</v>
+      </c>
+      <c r="E52">
+        <v>82.683695751687694</v>
+      </c>
+      <c r="F52">
+        <v>80.039130252340499</v>
+      </c>
+      <c r="G52">
+        <v>65.656521672787804</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>2014</v>
+      </c>
+      <c r="C53">
+        <v>81.723913109820799</v>
+      </c>
+      <c r="D53">
+        <v>82.453260587609293</v>
+      </c>
+      <c r="E53">
+        <v>82.381521639616594</v>
+      </c>
+      <c r="F53">
+        <v>79.441304331240403</v>
+      </c>
+      <c r="G53">
+        <v>65.508695934129804</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2015</v>
+      </c>
+      <c r="C54">
+        <v>82.0641304513682</v>
+      </c>
+      <c r="D54">
+        <v>83.366304231726602</v>
+      </c>
+      <c r="E54">
+        <v>82.528260521266702</v>
+      </c>
+      <c r="F54">
+        <v>79.569565482761504</v>
+      </c>
+      <c r="G54">
+        <v>63.722826377205202</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2016</v>
+      </c>
+      <c r="C55">
+        <v>82.448912496152104</v>
+      </c>
+      <c r="D55">
+        <v>83.043478177941296</v>
+      </c>
+      <c r="E55">
+        <v>82.320652090984794</v>
+      </c>
+      <c r="F55">
+        <v>80.932608811751606</v>
+      </c>
+      <c r="G55">
+        <v>66.180434641630697</v>
+      </c>
+      <c r="J55" t="str">
+        <f>C33</f>
+        <v>Wichita Falls,US</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" ref="K55" si="2">D33</f>
+        <v>San Angelo,US</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" ref="L55" si="3">E33</f>
+        <v>Abilene,US</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" ref="M55" si="4">F33</f>
+        <v>Oklahoma City,US</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" ref="N55" si="5">G33</f>
+        <v>Moscow,Russia</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2017</v>
+      </c>
+      <c r="C56">
+        <v>80.531521589859594</v>
+      </c>
+      <c r="D56">
+        <v>82.516304430754204</v>
+      </c>
+      <c r="E56">
+        <v>80.258696017058</v>
+      </c>
+      <c r="F56">
+        <v>78.920652140741694</v>
+      </c>
+      <c r="G56">
+        <v>61.939130244047703</v>
+      </c>
+      <c r="J56">
+        <f>SLOPE(C34:C58,$B$4:$B$28)</f>
+        <v>3.0233613048132211E-3</v>
+      </c>
+      <c r="K56">
+        <f>SLOPE(D34:D58,$B$4:$B$28)</f>
+        <v>0.10921094267054431</v>
+      </c>
+      <c r="L56">
+        <f>SLOPE(E34:E58,$B$4:$B$28)</f>
+        <v>8.2633445999597099E-2</v>
+      </c>
+      <c r="M56">
+        <f>SLOPE(F34:F58,$B$4:$B$28)</f>
+        <v>3.7070970806485443E-2</v>
+      </c>
+      <c r="N56">
+        <f>SLOPE(G34:G58,$B$4:$B$28)</f>
+        <v>7.7566174850452058E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>2018</v>
+      </c>
+      <c r="C57">
+        <v>84.972826086956502</v>
+      </c>
+      <c r="D57">
+        <v>85.832608679066496</v>
+      </c>
+      <c r="E57">
+        <v>83.992391586303697</v>
+      </c>
+      <c r="F57">
+        <v>80.020652522211407</v>
+      </c>
+      <c r="G57">
+        <v>65.557608480038795</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>2019</v>
+      </c>
+      <c r="C58">
+        <v>81.733695154604703</v>
+      </c>
+      <c r="D58">
+        <v>83.707609093707504</v>
+      </c>
+      <c r="E58">
+        <v>83.110869366189704</v>
+      </c>
+      <c r="F58">
+        <v>79.011956588081603</v>
+      </c>
+      <c r="G58">
+        <v>63.083695619002597</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>1995</v>
+      </c>
+      <c r="E62">
+        <v>83.818644119521295</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>1996</v>
+      </c>
+      <c r="E63">
+        <v>86.254651003105593</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63">
+        <f>SLOPE(E62:E77,D62:D77)</f>
+        <v>0.15063688088445915</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>1997</v>
+      </c>
+      <c r="E64">
+        <v>81.083999633789006</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1998</v>
+      </c>
+      <c r="E65">
+        <v>85.565517644772498</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>1999</v>
+      </c>
+      <c r="E66">
+        <v>80.317142595563595</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>2000</v>
+      </c>
+      <c r="E67">
+        <v>85.529347709987405</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>2001</v>
+      </c>
+      <c r="E68">
+        <v>83.820652173913004</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>2002</v>
+      </c>
+      <c r="E69">
+        <v>84.397727186029599</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>2003</v>
+      </c>
+      <c r="E70">
+        <v>90.450000762939396</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>2004</v>
+      </c>
+      <c r="E71">
+        <v>82.857608712237806</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>2005</v>
+      </c>
+      <c r="E72">
+        <v>82.0130436109459</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>2006</v>
+      </c>
+      <c r="E73">
+        <v>82.854348058285893</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>2007</v>
+      </c>
+      <c r="E74">
+        <v>83.969230568015902</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>2008</v>
+      </c>
+      <c r="E75">
+        <v>84.765217573746398</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>2009</v>
+      </c>
+      <c r="E76">
+        <v>84.619565549104095</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>2010</v>
+      </c>
+      <c r="E77">
+        <v>90.099998474121094</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5056,8 +5777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76788943-DE84-49BB-981C-A0946E7660AB}">
   <dimension ref="B3:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/exel.xlsx
+++ b/exel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Google Drive\Tareas\Patos\proyecto\daily_temp_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829B3CB9-F260-4EF5-9410-8CCAFBAAC748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A4B558-A8C8-4ABE-8A47-54923EC54BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Spring</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>South/Central America &amp; Carribean</t>
+  </si>
+  <si>
+    <t>Avg total</t>
   </si>
   <si>
     <t>Wichita Falls,US</t>
@@ -3547,10 +3550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C714A26-8582-4DED-B929-AA40AE456B7C}">
-  <dimension ref="E5:R32"/>
+  <dimension ref="D5:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,7 +3562,10 @@
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
@@ -3588,7 +3594,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>SUM(F6:I6)/4</f>
+        <v>63.956590158972574</v>
+      </c>
       <c r="E6">
         <v>1995</v>
       </c>
@@ -3607,7 +3617,11 @@
       <c r="J6" s="1"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" ref="D7:D30" si="0">SUM(F7:I7)/4</f>
+        <v>63.045467870364796</v>
+      </c>
       <c r="E7">
         <v>1996</v>
       </c>
@@ -3628,19 +3642,23 @@
         <v>-0.92082935909429864</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ref="K7:M22" si="0">G7-G6</f>
+        <f t="shared" ref="K7:M22" si="1">G7-G6</f>
         <v>-0.81240918143539886</v>
       </c>
       <c r="L7" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.3093035265379029</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.60194708736349867</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>-1.3093035265379029</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.60194708736349867</v>
-      </c>
-    </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+        <v>63.402785370641247</v>
+      </c>
       <c r="E8">
         <v>1997</v>
       </c>
@@ -3657,23 +3675,27 @@
         <v>60.182247880209196</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ref="J8:J30" si="1">F8-F7</f>
+        <f t="shared" ref="J8:J30" si="2">F8-F7</f>
         <v>0.38041909702180021</v>
       </c>
       <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.14267765052549919</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48570475346590314</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.70582380114359466</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>-0.14267765052549919</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48570475346590314</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.70582380114359466</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.473476303588299</v>
+      </c>
       <c r="E9">
         <v>1998</v>
       </c>
@@ -3690,23 +3712,27 @@
         <v>61.842077893741497</v>
       </c>
       <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4767123077626962</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>1.4767123077626962</v>
-      </c>
-      <c r="K9" s="2">
+        <v>1.0884326719451991</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7788738547998264E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6598300135323001</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>1.0884326719451991</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7788738547998264E-2</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6598300135323001</v>
-      </c>
-    </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.044741461732698</v>
+      </c>
       <c r="E10">
         <v>1999</v>
       </c>
@@ -3723,23 +3749,27 @@
         <v>61.4693003229279</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.44652655198269997</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-0.44652655198269997</v>
-      </c>
-      <c r="K10" s="2">
+        <v>-0.1900935463796003</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.70554169824649904</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.37277757081359653</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>-0.1900935463796003</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.70554169824649904</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.37277757081359653</v>
-      </c>
-    </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
+        <v>63.687772878776627</v>
+      </c>
       <c r="E11">
         <v>2000</v>
       </c>
@@ -3756,23 +3786,27 @@
         <v>60.275093639639003</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2444669838610025</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>1.2444669838610025</v>
-      </c>
-      <c r="K11" s="2">
+        <v>-0.42531109689549851</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.0528235355009059</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.1942066832888969</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>-0.42531109689549851</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.0528235355009059</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.1942066832888969</v>
-      </c>
-    </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.147221077506956</v>
+      </c>
       <c r="E12">
         <v>2001</v>
       </c>
@@ -3789,23 +3823,27 @@
         <v>61.674941518395102</v>
       </c>
       <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.71767385579290277</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-0.71767385579290277</v>
-      </c>
-      <c r="K12" s="2">
+        <v>0.61444078328010221</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54117798867800104</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3998478787560984</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.61444078328010221</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54117798867800104</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3998478787560984</v>
-      </c>
-    </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.159145784015649</v>
+      </c>
       <c r="E13">
         <v>2002</v>
       </c>
@@ -3822,23 +3860,27 @@
         <v>60.798859888140001</v>
       </c>
       <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.26560387698409471</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-0.26560387698409471</v>
-      </c>
-      <c r="K13" s="2">
+        <v>0.64424612346618915</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54513820980780281</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.87608163025510066</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.64424612346618915</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54513820980780281</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.87608163025510066</v>
-      </c>
-    </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.279317020359571</v>
+      </c>
       <c r="E14">
         <v>2003</v>
       </c>
@@ -3855,23 +3897,27 @@
         <v>61.3824094235231</v>
       </c>
       <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8158634572499182E-2</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>9.8158634572499182E-2</v>
-      </c>
-      <c r="K14" s="2">
+        <v>-0.36317600781779902</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16215278323790017</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58354953538309928</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D15">
         <f t="shared" si="0"/>
-        <v>-0.36317600781779902</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16215278323790017</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.58354953538309928</v>
-      </c>
-    </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.235955481029023</v>
+      </c>
       <c r="E15">
         <v>2004</v>
       </c>
@@ -3888,23 +3934,27 @@
         <v>62.004777261934201</v>
       </c>
       <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.92737520845869881</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>0.92737520845869881</v>
-      </c>
-      <c r="K15" s="2">
+        <v>-1.4212239020099986</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.30196530218199769</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6223678384111011</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D16">
         <f t="shared" si="0"/>
-        <v>-1.4212239020099986</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.30196530218199769</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.6223678384111011</v>
-      </c>
-    </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+        <v>64.5850641119969</v>
+      </c>
       <c r="E16">
         <v>2005</v>
       </c>
@@ -3921,23 +3971,27 @@
         <v>62.445541989067898</v>
       </c>
       <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.2234729689877</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2234729689877</v>
-      </c>
-      <c r="K16" s="2">
+        <v>1.7189601365007974</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46018262922469688</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44076472713369697</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D17">
         <f t="shared" si="0"/>
-        <v>1.7189601365007974</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46018262922469688</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.44076472713369697</v>
-      </c>
-    </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
+        <v>64.690302885651789</v>
+      </c>
       <c r="E17">
         <v>2006</v>
       </c>
@@ -3954,23 +4008,27 @@
         <v>61.278345202734101</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2127003167889967</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>1.2127003167889967</v>
-      </c>
-      <c r="K17" s="2">
+        <v>0.21432569370109888</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16112587046330162</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.1671967863337969</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.21432569370109888</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16112587046330162</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.1671967863337969</v>
-      </c>
-    </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
+        <v>64.753292098406973</v>
+      </c>
       <c r="E18">
         <v>2007</v>
       </c>
@@ -3987,23 +4045,27 @@
         <v>62.025259689089403</v>
       </c>
       <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.29087163100380309</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>0.29087163100380309</v>
-      </c>
-      <c r="K18" s="2">
+        <v>-0.36881569326449437</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.41701357307390197</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74691448635530122</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D19">
         <f t="shared" si="0"/>
-        <v>-0.36881569326449437</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.41701357307390197</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.74691448635530122</v>
-      </c>
-    </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
+        <v>64.097077648430044</v>
+      </c>
       <c r="E19">
         <v>2008</v>
       </c>
@@ -4020,23 +4082,27 @@
         <v>60.831270714207598</v>
       </c>
       <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.2687014703455972</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2687014703455972</v>
-      </c>
-      <c r="K19" s="2">
+        <v>-0.52769765677899727</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36553030209869775</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.1939889748818047</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D20">
         <f t="shared" si="0"/>
-        <v>-0.52769765677899727</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.36553030209869775</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.1939889748818047</v>
-      </c>
-    </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
+        <v>64.362145247566971</v>
+      </c>
       <c r="E20">
         <v>2009</v>
       </c>
@@ -4053,23 +4119,27 @@
         <v>61.494699837750098</v>
       </c>
       <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.53608726316989674</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>0.53608726316989674</v>
-      </c>
-      <c r="K20" s="2">
+        <v>-0.31884392578079712</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17959793561610127</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66342912354249961</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D21">
         <f t="shared" si="0"/>
-        <v>-0.31884392578079712</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17959793561610127</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66342912354249961</v>
-      </c>
-    </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
+        <v>65.096803861565348</v>
+      </c>
       <c r="E21">
         <v>2010</v>
       </c>
@@ -4086,23 +4156,27 @@
         <v>61.989566978981998</v>
       </c>
       <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.945387816888001</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0.945387816888001</v>
-      </c>
-      <c r="K21" s="2">
+        <v>1.5866149541843981</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.8235456310798099E-2</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49486714123190012</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D22">
         <f t="shared" si="0"/>
-        <v>1.5866149541843981</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.8235456310798099E-2</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49486714123190012</v>
-      </c>
-    </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
+        <v>64.917190311842035</v>
+      </c>
       <c r="E22">
         <v>2011</v>
       </c>
@@ -4119,23 +4193,27 @@
         <v>61.8748984034833</v>
       </c>
       <c r="J22" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.82830118614509729</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>-0.82830118614509729</v>
-      </c>
-      <c r="K22" s="2">
+        <v>-0.12082019817650291</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34533576092700002</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.11466857549869758</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D23">
         <f t="shared" si="0"/>
-        <v>-0.12082019817650291</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.34533576092700002</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.11466857549869758</v>
-      </c>
-    </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
+        <v>65.301739275584268</v>
+      </c>
       <c r="E23">
         <v>2012</v>
       </c>
@@ -4152,23 +4230,27 @@
         <v>61.2644168386907</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2490388460680961</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:K30" si="2">G23-G22</f>
+        <f t="shared" ref="K23:K30" si="3">G23-G22</f>
         <v>-1.8981846846003236E-2</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" ref="L23:L30" si="3">H23-H22</f>
+        <f t="shared" ref="L23:L30" si="4">H23-H22</f>
         <v>-8.1379579460502782E-2</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" ref="M23:M30" si="4">I23-I22</f>
+        <f t="shared" ref="M23:M30" si="5">I23-I22</f>
         <v>-0.6104815647926003</v>
       </c>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>64.300986981960833</v>
+      </c>
       <c r="E24">
         <v>2013</v>
       </c>
@@ -4185,23 +4267,27 @@
         <v>61.315743848906202</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.4762692833056974</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.93501827893699385</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35695137753339878</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.13270102155019E-2</v>
       </c>
     </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>64.612701463984706</v>
+      </c>
       <c r="E25">
         <v>2014</v>
       </c>
@@ -4218,19 +4304,19 @@
         <v>61.607502756968401</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69277635848320074</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.18571392198460046</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44803658353470155</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2917589080621994</v>
       </c>
       <c r="N25" t="s">
@@ -4249,7 +4335,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>65.635512331914157</v>
+      </c>
       <c r="E26">
         <v>2015</v>
       </c>
@@ -4266,19 +4356,19 @@
         <v>63.418053393080903</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4177834139008993</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0257296004834018</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.16282017877900046</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8105506361125023</v>
       </c>
       <c r="O26">
@@ -4298,7 +4388,11 @@
         <v>8.6996536491236398E-2</v>
       </c>
     </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>65.852710489289578</v>
+      </c>
       <c r="E27">
         <v>2016</v>
       </c>
@@ -4315,23 +4409,27 @@
         <v>63.590938149888302</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4919660138185975</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57173347644850026</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.36779161757279866</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17288475680739879</v>
       </c>
     </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>65.452312997562274</v>
+      </c>
       <c r="E28">
         <v>2017</v>
       </c>
@@ -4348,23 +4446,27 @@
         <v>62.639196305907497</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.7936402919501973E-2</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.78029698306660578</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18838526305770387</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.95174184398080541</v>
       </c>
     </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>65.047682853589649</v>
+      </c>
       <c r="E29">
         <v>2018</v>
       </c>
@@ -4381,23 +4483,27 @@
         <v>61.6572215968637</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.7429693324100981</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.69605216891079635</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.58962870334740103</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.98197470904379713</v>
       </c>
     </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>65.084283307324995</v>
+      </c>
       <c r="E30">
         <v>2019</v>
       </c>
@@ -4414,23 +4520,27 @@
         <v>62.0894082316251</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.78222665126499891</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.45828725658169844</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95472908802669565</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43218663476140051</v>
       </c>
     </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <f>D30-D6</f>
+        <v>1.1276931483524208</v>
+      </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
@@ -4439,19 +4549,23 @@
         <v>1.2332329525655013</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" ref="G31:H31" si="5">G30-G6</f>
+        <f t="shared" ref="G31:H31" si="6">G30-G6</f>
         <v>1.0911684624399953</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.17533411320819425</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" ref="I31" si="6">I30-I6</f>
+        <f t="shared" ref="I31" si="7">I30-I6</f>
         <v>2.0110370651959997</v>
       </c>
     </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D32" s="2">
+        <f>MAX(D6:D30)-MIN(D6:D30)</f>
+        <v>2.8072426189247821</v>
+      </c>
       <c r="E32" t="s">
         <v>5</v>
       </c>
@@ -4460,11 +4574,11 @@
         <v>4.6109381953573987</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" ref="G32:I32" si="7">MAX(G6:G30)-MIN(G6:G30)</f>
+        <f t="shared" ref="G32:H32" si="8">MAX(G6:G30)-MIN(G6:G30)</f>
         <v>2.6414723395498072</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6995093814796007</v>
       </c>
       <c r="I32" s="2">
@@ -4483,17 +4597,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC960B77-A31D-4679-BF7E-2B47567D8405}">
   <dimension ref="B3:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
@@ -5072,19 +5186,19 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -5531,19 +5645,19 @@
         <v>Wichita Falls,US</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" ref="K55" si="2">D33</f>
+        <f t="shared" ref="K55:N55" si="2">D33</f>
         <v>San Angelo,US</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" ref="L55" si="3">E33</f>
+        <f t="shared" si="2"/>
         <v>Abilene,US</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" ref="M55" si="4">F33</f>
+        <f t="shared" si="2"/>
         <v>Oklahoma City,US</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" ref="N55" si="5">G33</f>
+        <f t="shared" si="2"/>
         <v>Moscow,Russia</v>
       </c>
     </row>
@@ -5629,7 +5743,7 @@
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -5648,7 +5762,7 @@
         <v>86.254651003105593</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <f>SLOPE(E62:E77,D62:D77)</f>
@@ -5778,7 +5892,7 @@
   <dimension ref="B3:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/exel.xlsx
+++ b/exel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Google Drive\Tareas\Patos\proyecto\daily_temp_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A4B558-A8C8-4ABE-8A47-54923EC54BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4318D7-3FE5-46B4-AC00-5B443E56D8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
+    <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13290" activeTab="3" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="ciudades con mayor variacion" sheetId="2" r:id="rId2"/>
     <sheet name="variacion por region" sheetId="3" r:id="rId3"/>
+    <sheet name="Top ciudades" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ciudades con mayor variacion'!#REF!</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>Spring</t>
   </si>
@@ -135,6 +136,210 @@
   </si>
   <si>
     <t>Pendiente</t>
+  </si>
+  <si>
+    <t>TOP 20 ciudades con maximas en verano</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Doha</t>
+  </si>
+  <si>
+    <t>Dhahran</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Yuma</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Manama</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t>Nicosia</t>
+  </si>
+  <si>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>Ashabad</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Tucson</t>
+  </si>
+  <si>
+    <t>Fort Smith</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Antananarivo</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Windhoek</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Capetown</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Lusaka</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Bujumbura</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>Equador</t>
+  </si>
+  <si>
+    <t>Lilongwe</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Maputo</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Brasilia</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Top 20 en invierno</t>
   </si>
 </sst>
 </file>
@@ -2059,6 +2264,764 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Top ciudades'!$B$4:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Kuwait</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Doha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dhahran</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Phoenix</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dubai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Yuma</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Abu Dhabi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Las Vegas</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Muscat</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Riyadh</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Delhi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Manama</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Fresno</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Nicosia</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Islamabad</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Ashabad</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Monterrey</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Tucson</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Fort Smith</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Tulsa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Top ciudades'!$E$4:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>43.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.055555555555557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.944444444444443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.944444444444443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.055555555555557</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.611111111111114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38.000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7FF5-4B11-A622-1CA5EF42A4DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1326738960"/>
+        <c:axId val="1326741456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1326738960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326741456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1326741456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326738960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Top ciudades'!$B$27:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Canberra</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>La Paz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Antananarivo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Buenos Aires</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sydney</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Windhoek</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Auckland</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Perth</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sao Paulo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Capetown</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Brisbane</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Melbourne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Lusaka</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Bujumbura</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Quito</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lilongwe</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Nairobi</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Maputo</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Brasilia</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Lima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Top ciudades'!$E$27:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.72222222222222265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99999999999999845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8333333333333319</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2777777777777795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0555555555555562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0555555555555562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1666666666666679</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1111111111111098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5555555555555562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6111111111111134</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7777777777777768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.77777777777778</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.388888888888891</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.388888888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7799-4251-B95C-D5C7FDA9C805}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1399627520"/>
+        <c:axId val="1399627936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1399627520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399627936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1399627936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399627520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2139,6 +3102,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2818,6 +3861,1012 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3245,6 +5294,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1D3FEE-0206-4916-91B9-AC54F8885835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D62F47D-6EFA-49C4-ACED-DC9859C8BEEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3553,7 +5679,7 @@
   <dimension ref="D5:R32"/>
   <sheetViews>
     <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3619,7 +5745,7 @@
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7">
-        <f t="shared" ref="D7:D30" si="0">SUM(F7:I7)/4</f>
+        <f>SUM(F7:I7)/4</f>
         <v>63.045467870364796</v>
       </c>
       <c r="E7">
@@ -3642,21 +5768,21 @@
         <v>-0.92082935909429864</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ref="K7:M22" si="1">G7-G6</f>
+        <f t="shared" ref="K7:M22" si="0">G7-G6</f>
         <v>-0.81240918143539886</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.3093035265379029</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.60194708736349867</v>
       </c>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7:D30" si="1">SUM(F8:I8)/4</f>
         <v>63.402785370641247</v>
       </c>
       <c r="E8">
@@ -3679,21 +5805,21 @@
         <v>0.38041909702180021</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.14267765052549919</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.48570475346590314</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.70582380114359466</v>
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.473476303588299</v>
       </c>
       <c r="E9">
@@ -3716,21 +5842,21 @@
         <v>1.4767123077626962</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0884326719451991</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7788738547998264E-2</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6598300135323001</v>
       </c>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.044741461732698</v>
       </c>
       <c r="E10">
@@ -3753,21 +5879,21 @@
         <v>-0.44652655198269997</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.1900935463796003</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.70554169824649904</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.37277757081359653</v>
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.687772878776627</v>
       </c>
       <c r="E11">
@@ -3790,21 +5916,21 @@
         <v>1.2444669838610025</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.42531109689549851</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.0528235355009059</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.1942066832888969</v>
       </c>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.147221077506956</v>
       </c>
       <c r="E12">
@@ -3827,21 +5953,21 @@
         <v>-0.71767385579290277</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.61444078328010221</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.54117798867800104</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3998478787560984</v>
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.159145784015649</v>
       </c>
       <c r="E13">
@@ -3864,21 +5990,21 @@
         <v>-0.26560387698409471</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.64424612346618915</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.54513820980780281</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.87608163025510066</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.279317020359571</v>
       </c>
       <c r="E14">
@@ -3901,21 +6027,21 @@
         <v>9.8158634572499182E-2</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.36317600781779902</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16215278323790017</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.58354953538309928</v>
       </c>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.235955481029023</v>
       </c>
       <c r="E15">
@@ -3938,21 +6064,21 @@
         <v>0.92737520845869881</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.4212239020099986</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.30196530218199769</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.6223678384111011</v>
       </c>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.5850641119969</v>
       </c>
       <c r="E16">
@@ -3975,21 +6101,21 @@
         <v>-1.2234729689877</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7189601365007974</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.46018262922469688</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.44076472713369697</v>
       </c>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.690302885651789</v>
       </c>
       <c r="E17">
@@ -4012,21 +6138,21 @@
         <v>1.2127003167889967</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.21432569370109888</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16112587046330162</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.1671967863337969</v>
       </c>
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.753292098406973</v>
       </c>
       <c r="E18">
@@ -4049,21 +6175,21 @@
         <v>0.29087163100380309</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.36881569326449437</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.41701357307390197</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.74691448635530122</v>
       </c>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.097077648430044</v>
       </c>
       <c r="E19">
@@ -4086,21 +6212,21 @@
         <v>-1.2687014703455972</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.52769765677899727</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.36553030209869775</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.1939889748818047</v>
       </c>
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.362145247566971</v>
       </c>
       <c r="E20">
@@ -4123,21 +6249,21 @@
         <v>0.53608726316989674</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.31884392578079712</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.17959793561610127</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.66342912354249961</v>
       </c>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.096803861565348</v>
       </c>
       <c r="E21">
@@ -4160,21 +6286,21 @@
         <v>0.945387816888001</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5866149541843981</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-8.8235456310798099E-2</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.49486714123190012</v>
       </c>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.917190311842035</v>
       </c>
       <c r="E22">
@@ -4197,21 +6323,21 @@
         <v>-0.82830118614509729</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.12082019817650291</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.34533576092700002</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.11466857549869758</v>
       </c>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.301739275584268</v>
       </c>
       <c r="E23">
@@ -4248,7 +6374,7 @@
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.300986981960833</v>
       </c>
       <c r="E24">
@@ -4285,7 +6411,7 @@
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.612701463984706</v>
       </c>
       <c r="E25">
@@ -4337,7 +6463,7 @@
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.635512331914157</v>
       </c>
       <c r="E26">
@@ -4390,7 +6516,7 @@
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.852710489289578</v>
       </c>
       <c r="E27">
@@ -4427,7 +6553,7 @@
     </row>
     <row r="28" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.452312997562274</v>
       </c>
       <c r="E28">
@@ -4464,7 +6590,7 @@
     </row>
     <row r="29" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.047682853589649</v>
       </c>
       <c r="E29">
@@ -4501,7 +6627,7 @@
     </row>
     <row r="30" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.084283307324995</v>
       </c>
       <c r="E30">
@@ -4597,7 +6723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC960B77-A31D-4679-BF7E-2B47567D8405}">
   <dimension ref="B3:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
@@ -6562,4 +8688,630 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C264258-D332-44C4-B410-5AB85B8FE2DE}">
+  <dimension ref="B2:E46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <f>(D4-32)*(5/9)</f>
+        <v>43.333333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>108.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E23" si="0">(D5-32)*(5/9)</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>107.8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>42.111111111111114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>107.7</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>42.055555555555557</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>107.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>41.944444444444443</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>107.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>41.944444444444443</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>107.3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>41.833333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>107</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>105.9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>41.055555555555557</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>105</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>40.555555555555557</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>103.6</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>39.777777777777779</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>103.3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>39.611111111111114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>102.6</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>39.222222222222221</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>102.5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>39.166666666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>102.4</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>39.111111111111114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>102.2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>101.8</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>38.777777777777779</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>101.6</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>38.666666666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>100.7</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>38.166666666666671</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>100.4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>38.000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27">
+        <v>30.7</v>
+      </c>
+      <c r="E27">
+        <f>(D27-32)*(5/9)</f>
+        <v>-0.72222222222222265</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E46" si="1">(D28-32)*(5/9)</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999845</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1.8333333333333319</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>4.2777777777777795</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>41.1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>5.0555555555555562</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>41.1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>5.0555555555555562</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>43.1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>6.1666666666666679</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>44.8</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>7.1111111111111098</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>44.9</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>7.1666666666666661</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37">
+        <v>45.6</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>7.5555555555555562</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38">
+        <v>45.7</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>7.6111111111111134</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>47.8</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>8.7777777777777768</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40">
+        <v>48.2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000018</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41">
+        <v>49.4</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42">
+        <v>50.9</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43">
+        <v>51.8</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>10.999999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44">
+        <v>53.2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>11.77777777777778</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45">
+        <v>56.1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>13.388888888888891</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46">
+        <v>57.9</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>14.388888888888889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/exel.xlsx
+++ b/exel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Google Drive\Tareas\Patos\proyecto\daily_temp_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4318D7-3FE5-46B4-AC00-5B443E56D8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A32F448-DFF9-4D9B-911D-75F1F31C6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13290" activeTab="3" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
   </bookViews>

--- a/exel.xlsx
+++ b/exel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Google Drive\Tareas\Patos\proyecto\daily_temp_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A32F448-DFF9-4D9B-911D-75F1F31C6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC66D8A-6F85-45DB-AD41-3D5940D5DBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13290" activeTab="3" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
   <si>
     <t>Spring</t>
   </si>
@@ -234,112 +234,85 @@
     <t>Tulsa</t>
   </si>
   <si>
-    <t>Canberra</t>
+    <t>Top 20 en invierno</t>
   </si>
   <si>
-    <t>Australia</t>
+    <t>TOP con mayor variacion</t>
   </si>
   <si>
-    <t>La Paz</t>
+    <t>Año</t>
   </si>
   <si>
-    <t>Bolivia</t>
+    <t>Celsius</t>
   </si>
   <si>
-    <t>Antananarivo</t>
+    <t>Mongolia</t>
   </si>
   <si>
-    <t>Madagascar</t>
+    <t>Canada</t>
   </si>
   <si>
-    <t>Buenos Aires</t>
+    <t>Russia</t>
   </si>
   <si>
-    <t>Argentina</t>
+    <t>Fairbanks</t>
   </si>
   <si>
-    <t>Sydney</t>
+    <t>Ulan-bator</t>
   </si>
   <si>
-    <t>Windhoek</t>
+    <t>Regina</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Winnipeg</t>
   </si>
   <si>
-    <t>Auckland</t>
+    <t>Duluth</t>
   </si>
   <si>
-    <t>New Zealand</t>
+    <t>Fargo</t>
   </si>
   <si>
-    <t>Perth</t>
+    <t>Edmonton</t>
   </si>
   <si>
-    <t>Sao Paulo</t>
+    <t>Bismarck</t>
   </si>
   <si>
-    <t>Brazil</t>
+    <t>Calgary</t>
   </si>
   <si>
-    <t>Capetown</t>
+    <t>Helena</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Great Falls</t>
   </si>
   <si>
-    <t>Brisbane</t>
+    <t>Minneapolis St. Paul</t>
   </si>
   <si>
-    <t>Melbourne</t>
+    <t>Sioux Falls</t>
   </si>
   <si>
-    <t>Lusaka</t>
+    <t>Billings</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Green Bay</t>
   </si>
   <si>
-    <t>Bujumbura</t>
+    <t>Caribou</t>
   </si>
   <si>
-    <t>Burundi</t>
+    <t>Quebec</t>
   </si>
   <si>
-    <t>Quito</t>
+    <t>Moscow</t>
   </si>
   <si>
-    <t>Equador</t>
+    <t>Rockford</t>
   </si>
   <si>
-    <t>Lilongwe</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Nairobi</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Maputo</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Brasilia</t>
-  </si>
-  <si>
-    <t>Lima</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Top 20 en invierno</t>
+    <t>Madison</t>
   </si>
 </sst>
 </file>
@@ -1259,6 +1232,956 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ciudades con mayor variacion'!$D$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>San Angelo,US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ciudades con mayor variacion'!$B$83:$B$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ciudades con mayor variacion'!$D$83:$D$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>80.921738831893194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.384444427490195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.6891304513682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.835869747659402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.278261018835906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.244565632032305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.655434484067101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.005681818181799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.011956256368805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.614130600639001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.430434600166606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.780434649923507</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.130769079858098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.425000066342506</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.118478194527</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84.666304546853695</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89.431521954743701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.322825970856996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.299999734629694</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.453260587609293</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.366304231726602</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>83.043478177941296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82.516304430754204</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85.832608679066496</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83.707609093707504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB02-43D0-AA08-360168FAC8D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ciudades con mayor variacion'!$C$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nicosia,Cyprus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ciudades con mayor variacion'!$C$83:$C$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>83.818644119521295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.254651003105593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.083999633789006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.565517644772498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.317142595563595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.529347709987405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.820652173913004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.397727186029599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.450000762939396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.857608712237806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.0130436109459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.854348058285893</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83.969230568015902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.765217573746398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.619565549104095</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.099998474121094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CB02-43D0-AA08-360168FAC8D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ciudades con mayor variacion'!$E$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Great Falls, US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ciudades con mayor variacion'!$E$83:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>61.410869805709098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.101234530225199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.776086724322703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.854348182678194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.817391063856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.367391171662703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.256521805473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.352873352752297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.857608629309595</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.510869565217298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.719565184220002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.491304439047099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.856043930892099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.390110099708593</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.734782675038197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.093478534532601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.613043619238795</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.777173539866496</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.021739835324496</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.281522004500601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.269565001777906</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66.002174087192699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.870652115863294</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67.157608737116206</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.840217383011506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CB02-43D0-AA08-360168FAC8D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ciudades con mayor variacion'!$F$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pocatello, US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ciudades con mayor variacion'!$F$83:$F$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>65.234782426253602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.733333757188504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.516304430754204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.602174095485495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.034782451132003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.715217714724304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.789130459660996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.340908874164896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.078260794929804</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.478260869565204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.482608795166001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.414130666981507</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.397802080426899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.020651734393496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.579348025114598</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.019565043241997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.467391221419604</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.841304530268104</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71.954347651937695</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.590217300083296</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.122825622558594</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.083695660466702</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.654347751451496</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.672825771829295</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>68.527173622794706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CB02-43D0-AA08-360168FAC8D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ciudades con mayor variacion'!$G$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Abilene,US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ciudades con mayor variacion'!$G$83:$G$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>79.907608363939303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.217441292696193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.678260886150795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.538043644117195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.818478708681795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.391304264897798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.971739312876807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.418181766163201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.580434799194293</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.930434931879404</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.566304331240403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.315217474232497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.092307876754504</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.774725190885704</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.081521822058605</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.8086953370467</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89.204347776329996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.840217092762799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82.683695751687694</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.381521639616594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82.528260521266702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.320652090984794</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80.258696017058</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83.992391586303697</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83.110869366189704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CB02-43D0-AA08-360168FAC8D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ciudades con mayor variacion'!$H$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moscow,Russia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ciudades con mayor variacion'!$H$83:$H$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>63.044565117877397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.922826062078002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.206521697666304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.994564927142598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.427173863286498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.9739129439644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.104347975357697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.431818225167007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.266304181969602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.611956306125798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.121739304583997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.216304364411698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.289010687188707</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.7505493164062</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62.583695867787199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.066304331240403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68.5739131595777</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64.814130326975899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.656521672787804</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.508695934129804</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63.722826377205202</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66.180434641630697</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.939130244047703</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.557608480038795</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.083695619002597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CB02-43D0-AA08-360168FAC8D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="764534608"/>
+        <c:axId val="1276656944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="764534608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276656944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1276656944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764534608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
@@ -1274,8 +2197,732 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Asia</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'variacion por region'!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$C$4:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>80.0313616139548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.711374526662894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.7801820958028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.516486869498195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.095655026920298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.709487315659203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.306054671605395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.540473701748098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.835507995545996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.3292667294848</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.904223951078606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.835797527413504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81.0461640283539</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.4998020899327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.683666867083105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.124501606735706</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.832496704796895</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.843605503419596</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80.627316043552298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80.889043886509796</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81.064062477453902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81.224354600128905</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.225135844686704</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81.276868156764806</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81.286304666281893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-60FA-4D86-9B3D-84F533899AE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'variacion por region'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Africa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$D$4:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>78.231382227414699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.454973110588597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.5572240445521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.792996079263006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.287560715453296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.400939260604005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.938597723932901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.616704831679797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.339243171761396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.167524396129707</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.065499728838404</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.561778081538606</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.935020905722396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.598198784439404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.051868122238503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.5960960502739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.058656163712101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78.0990249661684</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.865755117924905</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.240085450522102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78.684111607298803</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78.308564386467694</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.639543383890697</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.278481902068904</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.404506855272601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-60FA-4D86-9B3D-84F533899AE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'variacion por region'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Europe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$E$4:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>67.710748037389195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.638863233429404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.2905220654754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.459962778378099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.963025846897395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.605592613161406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.929280984915906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.334858678969198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.432888775833305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.274662809818395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.430496434261002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.221461791323804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.940060840972606</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.411558033090699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.836100463200495</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.392030807666998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.028748397519095</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.741735002220295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.544343179932</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.329641605516102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.177878924458298</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.530943292959094</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.081450795044503</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.886199887999894</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>68.691989590902395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-60FA-4D86-9B3D-84F533899AE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'variacion por region'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Middle East</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$F$4:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>86.406103650861695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.411017579125996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.941339012369397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.7200836979694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.2615318720391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.1285953426042</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.855285856624803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.999350680933304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.999843972335498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.213228387907705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.737274865947299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.615612576731294</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.671713681466898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.011073627616994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.197238475209005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.080936454211596</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.844801311863705</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.333273578866098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.277573206434695</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.860657204272002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.829121398925693</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90.257047032349803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.546140007275397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90.090832687005701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90.205439677372397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-60FA-4D86-9B3D-84F533899AE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'variacion por region'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>North America</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$G$4:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>74.454041891533706</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.198740829365704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.790770335428206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.347178744922402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.063845145466303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.402700127882497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.176596293897703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.028798340515095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.976564393898599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.402211107166394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.069940553722802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.181764660792595</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.691197308029999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.047816201156095</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.099774726094793</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.533175010673801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.953327615825302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.611993163028203</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.276082937640595</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.051303161547807</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.065753667765506</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76.221939064723301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>74.801593232201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.889222880779698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75.209696205764601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-60FA-4D86-9B3D-84F533899AE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'variacion por region'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>South/Central America &amp; Carribean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$H$4:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>76.978359011136504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.521848761643696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.168699833975495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.141269977508998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.095381060593596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.271644031300198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.120714848446696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.800895423319801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.356158376788798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.969167945824395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.824749694191098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.133157524563003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.492997704482605</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.366000049297597</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.844868016732406</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.669157423641195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.3849470366508</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77.736862914577401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.507773315182504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77.740285926350396</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78.919874794233195</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78.551484334468796</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.382372484071695</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77.509848495123705</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.106841158222494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-60FA-4D86-9B3D-84F533899AE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>Asia</c:v>
           </c:tx>
@@ -1462,13 +3109,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A783-43DE-B247-227F5BA03283}"/>
+              <c16:uniqueId val="{00000002-60FA-4D86-9B3D-84F533899AE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>'variacion por region'!$D$3</c:f>
@@ -1579,13 +3226,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A783-43DE-B247-227F5BA03283}"/>
+              <c16:uniqueId val="{00000004-60FA-4D86-9B3D-84F533899AE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>'variacion por region'!$E$3</c:f>
@@ -1696,13 +3343,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A783-43DE-B247-227F5BA03283}"/>
+              <c16:uniqueId val="{00000006-60FA-4D86-9B3D-84F533899AE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>'variacion por region'!$F$3</c:f>
@@ -1813,13 +3460,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A783-43DE-B247-227F5BA03283}"/>
+              <c16:uniqueId val="{00000008-60FA-4D86-9B3D-84F533899AE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>'variacion por region'!$G$3</c:f>
@@ -1930,13 +3577,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A783-43DE-B247-227F5BA03283}"/>
+              <c16:uniqueId val="{0000000A-60FA-4D86-9B3D-84F533899AE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
               <c:f>'variacion por region'!$H$3</c:f>
@@ -2047,7 +3694,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-A783-43DE-B247-227F5BA03283}"/>
+              <c16:uniqueId val="{0000000C-60FA-4D86-9B3D-84F533899AE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2171,13 +3818,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -2222,6 +3862,409 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'variacion por region'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$C$32:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>26.684089785530446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.506319181479387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.100101164334891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.953603816387886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.719808348289057</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.060826286477337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.836697039780777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.966929834304501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.575282219747777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.849592627491557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.169013306154781</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.130998626340837</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.247868904641056</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.944334494407055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.046481592823948</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.291389781519836</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.129164835998278</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.135336390788666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.015175579751279</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.160579936949887</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.257812487474393</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.346863666738283</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.347297691492614</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.376037864869339</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.38128037015661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A813-4697-8812-F0D0C7B78EFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'variacion por region'!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Africa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'variacion por region'!$D$32:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>25.684101237452612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.252762839215887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.309568913640057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.440553377368339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.715311508585167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.222744033668892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.521443179962723</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.898169350933223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.299579539867445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.204180220072061</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.591944293799113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.867654489743671</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.519456058734665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.887888213577448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.139926734576946</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.886720027929947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.588142313173389</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.610569425649114</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.480975065513839</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.688936361401169</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.935617559610446</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.726980214704277</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.910857435494833</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.710267723371615</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.780281586262557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A813-4697-8812-F0D0C7B78EFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1276067168"/>
+        <c:axId val="1276068416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1276067168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276068416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1276068416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276067168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2264,7 +4307,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2328,74 +4371,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Top ciudades'!$B$4:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>Kuwait</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Doha</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Dhahran</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Phoenix</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dubai</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Yuma</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Abu Dhabi</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Las Vegas</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Muscat</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Riyadh</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Delhi</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Manama</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Fresno</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Nicosia</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Islamabad</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Ashabad</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Monterrey</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Tucson</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Fort Smith</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Tulsa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Top ciudades'!$E$4:$E$23</c:f>
@@ -2466,6 +4441,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Top ciudades'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7FF5-4B11-A622-1CA5EF42A4DC}"/>
             </c:ext>
@@ -2643,7 +4633,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2695,11 +4685,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2713,64 +4703,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>Canberra</c:v>
+                  <c:v>Fairbanks</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>La Paz</c:v>
+                  <c:v>Ulan-bator</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Antananarivo</c:v>
+                  <c:v>Regina</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Buenos Aires</c:v>
+                  <c:v>Winnipeg</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sydney</c:v>
+                  <c:v>Duluth</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Windhoek</c:v>
+                  <c:v>Fargo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Auckland</c:v>
+                  <c:v>Edmonton</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Perth</c:v>
+                  <c:v>Bismarck</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Sao Paulo</c:v>
+                  <c:v>Calgary</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Capetown</c:v>
+                  <c:v>Helena</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Brisbane</c:v>
+                  <c:v>Great Falls</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Melbourne</c:v>
+                  <c:v>Minneapolis St. Paul</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Lusaka</c:v>
+                  <c:v>Sioux Falls</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Bujumbura</c:v>
+                  <c:v>Billings</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Quito</c:v>
+                  <c:v>Green Bay</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Lilongwe</c:v>
+                  <c:v>Caribou</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Nairobi</c:v>
+                  <c:v>Quebec</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Maputo</c:v>
+                  <c:v>Moscow</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Brasilia</c:v>
+                  <c:v>Rockford</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Lima</c:v>
+                  <c:v>Madison</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2782,71 +4772,71 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-0.72222222222222265</c:v>
+                  <c:v>-45.555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>-38.44444444444445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99999999999999845</c:v>
+                  <c:v>-38.055555555555557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8333333333333319</c:v>
+                  <c:v>-37.611111111111114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2777777777777795</c:v>
+                  <c:v>-34.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0555555555555562</c:v>
+                  <c:v>-34.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0555555555555562</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1666666666666679</c:v>
+                  <c:v>-33.388888888888893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1111111111111098</c:v>
+                  <c:v>-33.277777777777779</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1666666666666661</c:v>
+                  <c:v>-32.444444444444443</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5555555555555562</c:v>
+                  <c:v>-31.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.6111111111111134</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.7777777777777768</c:v>
+                  <c:v>-30.111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0000000000000018</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.6666666666666661</c:v>
+                  <c:v>-29.555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.5</c:v>
+                  <c:v>-29.388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.999999999999998</c:v>
+                  <c:v>-29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.77777777777778</c:v>
+                  <c:v>-29.111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.388888888888891</c:v>
+                  <c:v>-28.888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.388888888888889</c:v>
+                  <c:v>-28.888888888888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7799-4251-B95C-D5C7FDA9C805}"/>
+              <c16:uniqueId val="{00000002-7799-4251-B95C-D5C7FDA9C805}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3182,6 +5172,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4215,7 +6245,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4323,6 +6353,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4333,6 +6368,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4364,6 +6404,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4718,6 +6761,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5265,6 +7811,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53973C2-04EE-400F-B62B-257E78D4AC69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -5299,10 +7886,46 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B237E0-4715-4E3C-A40C-D95FC7A9CA2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6721,10 +9344,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC960B77-A31D-4679-BF7E-2B47567D8405}">
-  <dimension ref="B3:N77"/>
+  <dimension ref="B3:N107"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8007,18 +10630,595 @@
         <v>90.099998474121094</v>
       </c>
     </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>1995</v>
+      </c>
+      <c r="C83">
+        <v>83.818644119521295</v>
+      </c>
+      <c r="D83">
+        <v>80.921738831893194</v>
+      </c>
+      <c r="E83">
+        <v>61.410869805709098</v>
+      </c>
+      <c r="F83">
+        <v>65.234782426253602</v>
+      </c>
+      <c r="G83">
+        <v>79.907608363939303</v>
+      </c>
+      <c r="H83">
+        <v>63.044565117877397</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1996</v>
+      </c>
+      <c r="C84">
+        <v>86.254651003105593</v>
+      </c>
+      <c r="D84">
+        <v>82.384444427490195</v>
+      </c>
+      <c r="E84">
+        <v>67.101234530225199</v>
+      </c>
+      <c r="F84">
+        <v>68.733333757188504</v>
+      </c>
+      <c r="G84">
+        <v>81.217441292696193</v>
+      </c>
+      <c r="H84">
+        <v>62.922826062078002</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>1997</v>
+      </c>
+      <c r="C85">
+        <v>81.083999633789006</v>
+      </c>
+      <c r="D85">
+        <v>80.6891304513682</v>
+      </c>
+      <c r="E85">
+        <v>63.776086724322703</v>
+      </c>
+      <c r="F85">
+        <v>66.516304430754204</v>
+      </c>
+      <c r="G85">
+        <v>79.678260886150795</v>
+      </c>
+      <c r="H85">
+        <v>64.206521697666304</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>1998</v>
+      </c>
+      <c r="C86">
+        <v>85.565517644772498</v>
+      </c>
+      <c r="D86">
+        <v>83.835869747659402</v>
+      </c>
+      <c r="E86">
+        <v>64.854348182678194</v>
+      </c>
+      <c r="F86">
+        <v>67.602174095485495</v>
+      </c>
+      <c r="G86">
+        <v>84.538043644117195</v>
+      </c>
+      <c r="H86">
+        <v>62.994564927142598</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>1999</v>
+      </c>
+      <c r="C87">
+        <v>80.317142595563595</v>
+      </c>
+      <c r="D87">
+        <v>82.278261018835906</v>
+      </c>
+      <c r="E87">
+        <v>63.817391063856</v>
+      </c>
+      <c r="F87">
+        <v>67.034782451132003</v>
+      </c>
+      <c r="G87">
+        <v>82.818478708681795</v>
+      </c>
+      <c r="H87">
+        <v>66.427173863286498</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>2000</v>
+      </c>
+      <c r="C88">
+        <v>85.529347709987405</v>
+      </c>
+      <c r="D88">
+        <v>84.244565632032305</v>
+      </c>
+      <c r="E88">
+        <v>66.367391171662703</v>
+      </c>
+      <c r="F88">
+        <v>70.715217714724304</v>
+      </c>
+      <c r="G88">
+        <v>83.391304264897798</v>
+      </c>
+      <c r="H88">
+        <v>61.9739129439644</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>2001</v>
+      </c>
+      <c r="C89">
+        <v>83.820652173913004</v>
+      </c>
+      <c r="D89">
+        <v>84.655434484067101</v>
+      </c>
+      <c r="E89">
+        <v>67.256521805473</v>
+      </c>
+      <c r="F89">
+        <v>69.789130459660996</v>
+      </c>
+      <c r="G89">
+        <v>83.971739312876807</v>
+      </c>
+      <c r="H89">
+        <v>64.104347975357697</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2002</v>
+      </c>
+      <c r="C90">
+        <v>84.397727186029599</v>
+      </c>
+      <c r="D90">
+        <v>82.005681818181799</v>
+      </c>
+      <c r="E90">
+        <v>64.352873352752297</v>
+      </c>
+      <c r="F90">
+        <v>69.340908874164896</v>
+      </c>
+      <c r="G90">
+        <v>80.418181766163201</v>
+      </c>
+      <c r="H90">
+        <v>65.431818225167007</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>2003</v>
+      </c>
+      <c r="C91">
+        <v>90.450000762939396</v>
+      </c>
+      <c r="D91">
+        <v>81.011956256368805</v>
+      </c>
+      <c r="E91">
+        <v>68.857608629309595</v>
+      </c>
+      <c r="F91">
+        <v>72.078260794929804</v>
+      </c>
+      <c r="G91">
+        <v>80.580434799194293</v>
+      </c>
+      <c r="H91">
+        <v>61.266304181969602</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>2004</v>
+      </c>
+      <c r="C92">
+        <v>82.857608712237806</v>
+      </c>
+      <c r="D92">
+        <v>79.614130600639001</v>
+      </c>
+      <c r="E92">
+        <v>63.510869565217298</v>
+      </c>
+      <c r="F92">
+        <v>67.478260869565204</v>
+      </c>
+      <c r="G92">
+        <v>77.930434931879404</v>
+      </c>
+      <c r="H92">
+        <v>62.611956306125798</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>2005</v>
+      </c>
+      <c r="C93">
+        <v>82.0130436109459</v>
+      </c>
+      <c r="D93">
+        <v>80.430434600166606</v>
+      </c>
+      <c r="E93">
+        <v>64.719565184220002</v>
+      </c>
+      <c r="F93">
+        <v>67.482608795166001</v>
+      </c>
+      <c r="G93">
+        <v>80.566304331240403</v>
+      </c>
+      <c r="H93">
+        <v>63.121739304583997</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>2006</v>
+      </c>
+      <c r="C94">
+        <v>82.854348058285893</v>
+      </c>
+      <c r="D94">
+        <v>83.780434649923507</v>
+      </c>
+      <c r="E94">
+        <v>68.491304439047099</v>
+      </c>
+      <c r="F94">
+        <v>70.414130666981507</v>
+      </c>
+      <c r="G94">
+        <v>83.315217474232497</v>
+      </c>
+      <c r="H94">
+        <v>63.216304364411698</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>2007</v>
+      </c>
+      <c r="C95">
+        <v>83.969230568015902</v>
+      </c>
+      <c r="D95">
+        <v>78.130769079858098</v>
+      </c>
+      <c r="E95">
+        <v>69.856043930892099</v>
+      </c>
+      <c r="F95">
+        <v>71.397802080426899</v>
+      </c>
+      <c r="G95">
+        <v>78.092307876754504</v>
+      </c>
+      <c r="H95">
+        <v>65.289010687188707</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>2008</v>
+      </c>
+      <c r="C96">
+        <v>84.765217573746398</v>
+      </c>
+      <c r="D96">
+        <v>82.425000066342506</v>
+      </c>
+      <c r="E96">
+        <v>65.390110099708593</v>
+      </c>
+      <c r="F96">
+        <v>69.020651734393496</v>
+      </c>
+      <c r="G96">
+        <v>81.774725190885704</v>
+      </c>
+      <c r="H96">
+        <v>62.7505493164062</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>2009</v>
+      </c>
+      <c r="C97">
+        <v>84.619565549104095</v>
+      </c>
+      <c r="D97">
+        <v>84.118478194527</v>
+      </c>
+      <c r="E97">
+        <v>63.734782675038197</v>
+      </c>
+      <c r="F97">
+        <v>65.579348025114598</v>
+      </c>
+      <c r="G97">
+        <v>83.081521822058605</v>
+      </c>
+      <c r="H97">
+        <v>62.583695867787199</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>2010</v>
+      </c>
+      <c r="C98">
+        <v>90.099998474121094</v>
+      </c>
+      <c r="D98">
+        <v>84.666304546853695</v>
+      </c>
+      <c r="E98">
+        <v>63.093478534532601</v>
+      </c>
+      <c r="F98">
+        <v>67.019565043241997</v>
+      </c>
+      <c r="G98">
+        <v>82.8086953370467</v>
+      </c>
+      <c r="H98">
+        <v>72.066304331240403</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>2011</v>
+      </c>
+      <c r="D99">
+        <v>89.431521954743701</v>
+      </c>
+      <c r="E99">
+        <v>65.613043619238795</v>
+      </c>
+      <c r="F99">
+        <v>67.467391221419604</v>
+      </c>
+      <c r="G99">
+        <v>89.204347776329996</v>
+      </c>
+      <c r="H99">
+        <v>68.5739131595777</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>2012</v>
+      </c>
+      <c r="D100">
+        <v>85.322825970856996</v>
+      </c>
+      <c r="E100">
+        <v>68.777173539866496</v>
+      </c>
+      <c r="F100">
+        <v>70.841304530268104</v>
+      </c>
+      <c r="G100">
+        <v>83.840217092762799</v>
+      </c>
+      <c r="H100">
+        <v>64.814130326975899</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>2013</v>
+      </c>
+      <c r="D101">
+        <v>83.299999734629694</v>
+      </c>
+      <c r="E101">
+        <v>67.021739835324496</v>
+      </c>
+      <c r="F101">
+        <v>71.954347651937695</v>
+      </c>
+      <c r="G101">
+        <v>82.683695751687694</v>
+      </c>
+      <c r="H101">
+        <v>65.656521672787804</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>2014</v>
+      </c>
+      <c r="D102">
+        <v>82.453260587609293</v>
+      </c>
+      <c r="E102">
+        <v>65.281522004500601</v>
+      </c>
+      <c r="F102">
+        <v>68.590217300083296</v>
+      </c>
+      <c r="G102">
+        <v>82.381521639616594</v>
+      </c>
+      <c r="H102">
+        <v>65.508695934129804</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>2015</v>
+      </c>
+      <c r="D103">
+        <v>83.366304231726602</v>
+      </c>
+      <c r="E103">
+        <v>68.269565001777906</v>
+      </c>
+      <c r="F103">
+        <v>70.122825622558594</v>
+      </c>
+      <c r="G103">
+        <v>82.528260521266702</v>
+      </c>
+      <c r="H103">
+        <v>63.722826377205202</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>2016</v>
+      </c>
+      <c r="D104">
+        <v>83.043478177941296</v>
+      </c>
+      <c r="E104">
+        <v>66.002174087192699</v>
+      </c>
+      <c r="F104">
+        <v>70.083695660466702</v>
+      </c>
+      <c r="G104">
+        <v>82.320652090984794</v>
+      </c>
+      <c r="H104">
+        <v>66.180434641630697</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>2017</v>
+      </c>
+      <c r="D105">
+        <v>82.516304430754204</v>
+      </c>
+      <c r="E105">
+        <v>68.870652115863294</v>
+      </c>
+      <c r="F105">
+        <v>70.654347751451496</v>
+      </c>
+      <c r="G105">
+        <v>80.258696017058</v>
+      </c>
+      <c r="H105">
+        <v>61.939130244047703</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>2018</v>
+      </c>
+      <c r="D106">
+        <v>85.832608679066496</v>
+      </c>
+      <c r="E106">
+        <v>67.157608737116206</v>
+      </c>
+      <c r="F106">
+        <v>69.672825771829295</v>
+      </c>
+      <c r="G106">
+        <v>83.992391586303697</v>
+      </c>
+      <c r="H106">
+        <v>65.557608480038795</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>2019</v>
+      </c>
+      <c r="D107">
+        <v>83.707609093707504</v>
+      </c>
+      <c r="E107">
+        <v>64.840217383011506</v>
+      </c>
+      <c r="F107">
+        <v>68.527173622794706</v>
+      </c>
+      <c r="G107">
+        <v>83.110869366189704</v>
+      </c>
+      <c r="H107">
+        <v>63.083695619002597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76788943-DE84-49BB-981C-A0946E7660AB}">
-  <dimension ref="B3:P28"/>
+  <dimension ref="A3:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8357,7 +11557,7 @@
         <v>77.492997704482605</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2008</v>
       </c>
@@ -8380,7 +11580,7 @@
         <v>77.366000049297597</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2009</v>
       </c>
@@ -8403,7 +11603,7 @@
         <v>78.844868016732406</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2010</v>
       </c>
@@ -8426,7 +11626,7 @@
         <v>78.669157423641195</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2011</v>
       </c>
@@ -8449,7 +11649,7 @@
         <v>78.3849470366508</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2012</v>
       </c>
@@ -8472,7 +11672,7 @@
         <v>77.736862914577401</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2013</v>
       </c>
@@ -8495,7 +11695,7 @@
         <v>77.507773315182504</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2014</v>
       </c>
@@ -8518,7 +11718,7 @@
         <v>77.740285926350396</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2015</v>
       </c>
@@ -8541,7 +11741,7 @@
         <v>78.919874794233195</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2016</v>
       </c>
@@ -8591,7 +11791,7 @@
         <v>South/Central America &amp; Carribean</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2017</v>
       </c>
@@ -8638,7 +11838,7 @@
         <v>2.2773286292922159E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2018</v>
       </c>
@@ -8661,7 +11861,7 @@
         <v>77.509848495123705</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2019</v>
       </c>
@@ -8682,6 +11882,808 @@
       </c>
       <c r="H28">
         <v>78.106841158222494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1995</v>
+      </c>
+      <c r="C32">
+        <f>(C4-32)*(5/9)</f>
+        <v>26.684089785530446</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:H32" si="2">(D4-32)*(5/9)</f>
+        <v>25.684101237452612</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>19.83930446521622</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>30.22561313936761</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>23.585578828629838</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>24.987977228409171</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1996</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:H33" si="3">(C5-32)*(5/9)</f>
+        <v>26.506319181479387</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>25.252762839215887</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>19.243812907460782</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>30.783898655070001</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>22.888189349647615</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>25.289915978690942</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1997</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:H34" si="4">(C6-32)*(5/9)</f>
+        <v>27.100101164334891</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>25.309568913640057</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>19.60584559193078</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>29.967410562427442</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>22.661539075237894</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>25.649277685541943</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1998</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:H35" si="5">(C7-32)*(5/9)</f>
+        <v>26.953603816387886</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>25.440553377368339</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>19.699979321321166</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>31.511157609983002</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>23.526210413845781</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>25.634038876393888</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1999</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:H36" si="6">(C8-32)*(5/9)</f>
+        <v>26.719808348289057</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="6"/>
+        <v>25.715311508585167</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>19.979458803831886</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="6"/>
+        <v>31.256406595577278</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>23.368802858592392</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>25.052989478107555</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2000</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:H37" si="7">(C9-32)*(5/9)</f>
+        <v>27.060826286477337</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="7"/>
+        <v>25.222744033668892</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="7"/>
+        <v>19.780884785089672</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>31.182552968113445</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="7"/>
+        <v>23.001500071045832</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>25.150913350722334</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2001</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:H38" si="8">(C10-32)*(5/9)</f>
+        <v>26.836697039780777</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="8"/>
+        <v>25.521443179962723</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="8"/>
+        <v>19.960711658286616</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="8"/>
+        <v>31.03071436479156</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="8"/>
+        <v>23.431442385498723</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="8"/>
+        <v>25.622619360248166</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2002</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:H39" si="9">(C11-32)*(5/9)</f>
+        <v>26.966929834304501</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="9"/>
+        <v>25.898169350933223</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="9"/>
+        <v>20.186032599427332</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="9"/>
+        <v>31.110750378296281</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="9"/>
+        <v>23.904887966952831</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="9"/>
+        <v>26.000497457399891</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2003</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:H40" si="10">(C12-32)*(5/9)</f>
+        <v>26.575282219747777</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>26.299579539867445</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="10"/>
+        <v>21.351604875462947</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="10"/>
+        <v>31.111024429075279</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="10"/>
+        <v>23.320313552165889</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="10"/>
+        <v>25.753421320438221</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2004</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:H41" si="11">(C13-32)*(5/9)</f>
+        <v>26.849592627491557</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="11"/>
+        <v>26.204180220072061</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="11"/>
+        <v>19.597034894343555</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="11"/>
+        <v>30.674015771059839</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>22.445672837314664</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="11"/>
+        <v>25.53842663656911</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2005</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:H42" si="12">(C14-32)*(5/9)</f>
+        <v>27.169013306154781</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="12"/>
+        <v>25.591944293799113</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="12"/>
+        <v>19.683609130145001</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="12"/>
+        <v>30.965152703304057</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="12"/>
+        <v>23.927744752068225</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="12"/>
+        <v>26.013749830106168</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2006</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:H43" si="13">(C15-32)*(5/9)</f>
+        <v>27.130998626340837</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="13"/>
+        <v>25.867654489743671</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="13"/>
+        <v>20.123034328513224</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="13"/>
+        <v>31.453118098184053</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="13"/>
+        <v>23.989869255995888</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="13"/>
+        <v>25.62953195809056</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2007</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:H44" si="14">(C16-32)*(5/9)</f>
+        <v>27.247868904641056</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="14"/>
+        <v>25.519456058734665</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="14"/>
+        <v>19.966700467207005</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="14"/>
+        <v>31.484285378592723</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="14"/>
+        <v>23.717331837794443</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="14"/>
+        <v>25.273887613601449</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2008</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:H45" si="15">(C17-32)*(5/9)</f>
+        <v>26.944334494407055</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="15"/>
+        <v>25.887888213577448</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="15"/>
+        <v>19.6730877961615</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="15"/>
+        <v>31.672818682009442</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="15"/>
+        <v>23.359897889531165</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="15"/>
+        <v>25.203333360720887</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2009</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:H46" si="16">(C18-32)*(5/9)</f>
+        <v>27.046481592823948</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="16"/>
+        <v>26.139926734576946</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="16"/>
+        <v>19.908944701778054</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="16"/>
+        <v>31.776243597338336</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="16"/>
+        <v>22.833208181163776</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="16"/>
+        <v>26.024926675962448</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2010</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:H47" si="17">(C19-32)*(5/9)</f>
+        <v>27.291389781519836</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="17"/>
+        <v>25.886720027929947</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="17"/>
+        <v>20.217794893148334</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="17"/>
+        <v>32.267186919006441</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="17"/>
+        <v>24.185097228152113</v>
+      </c>
+      <c r="H47">
+        <f>(H19-32)*(5/9)</f>
+        <v>25.927309679800665</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>2011</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:H48" si="18">(C20-32)*(5/9)</f>
+        <v>27.129164835998278</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="18"/>
+        <v>25.588142313173389</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="18"/>
+        <v>19.460415776399497</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="18"/>
+        <v>31.580445173257615</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="18"/>
+        <v>24.418515342125168</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="18"/>
+        <v>25.769415020361556</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>2012</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:H49" si="19">(C21-32)*(5/9)</f>
+        <v>27.135336390788666</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="19"/>
+        <v>25.610569425649114</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="19"/>
+        <v>19.856519445677943</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="19"/>
+        <v>32.407374210481166</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="19"/>
+        <v>24.228885090571225</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="19"/>
+        <v>25.409368285876337</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2013</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:H50" si="20">(C22-32)*(5/9)</f>
+        <v>27.015175579751279</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="20"/>
+        <v>25.480975065513839</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="20"/>
+        <v>19.746857322184447</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="20"/>
+        <v>31.265318448019276</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="20"/>
+        <v>23.486712743133666</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="20"/>
+        <v>25.282096286212504</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2014</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:H51" si="21">(C23-32)*(5/9)</f>
+        <v>27.160579936949887</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="21"/>
+        <v>25.688936361401169</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="21"/>
+        <v>19.072023114175614</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="21"/>
+        <v>31.589254002373337</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="21"/>
+        <v>23.361835089748784</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="21"/>
+        <v>25.411269959083555</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>2015</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:H52" si="22">(C24-32)*(5/9)</f>
+        <v>27.257812487474393</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="22"/>
+        <v>25.935617559610446</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="22"/>
+        <v>20.098821624699056</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="22"/>
+        <v>32.127289666069828</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="22"/>
+        <v>23.925418704314172</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="22"/>
+        <v>26.066597107907331</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>2016</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:H53" si="23">(C25-32)*(5/9)</f>
+        <v>27.346863666738283</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="23"/>
+        <v>25.726980214704277</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="23"/>
+        <v>19.73941294053283</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="23"/>
+        <v>32.365026129083226</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="23"/>
+        <v>24.56774392484628</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="23"/>
+        <v>25.861935741371553</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" t="str">
+        <f>C31</f>
+        <v>Asia</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" ref="L53" si="24">D31</f>
+        <v>Africa</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" ref="M53" si="25">E31</f>
+        <v>Europe</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" ref="N53" si="26">F31</f>
+        <v>Middle East</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" ref="O53" si="27">G31</f>
+        <v>North America</v>
+      </c>
+      <c r="P53" t="str">
+        <f>H31</f>
+        <v>South/Central America &amp; Carribean</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2017</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:H54" si="28">(C26-32)*(5/9)</f>
+        <v>27.347297691492614</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="28"/>
+        <v>25.910857435494833</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="28"/>
+        <v>20.04525044169139</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="28"/>
+        <v>32.525633337375226</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="28"/>
+        <v>23.778662906778333</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="28"/>
+        <v>25.767984713373163</v>
+      </c>
+      <c r="K54">
+        <f>SLOPE(C32:C56,$B$4:$B$28)</f>
+        <v>2.6129925780815379E-2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ref="L54" si="29">SLOPE(D32:D56,$B$4:$B$28)</f>
+        <v>1.1877307828772882E-2</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ref="M54" si="30">SLOPE(E32:E56,$B$4:$B$28)</f>
+        <v>9.5267020951328146E-3</v>
+      </c>
+      <c r="N54">
+        <f>SLOPE(F32:F56,$B$4:$B$28)</f>
+        <v>7.7827994925219246E-2</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ref="O54" si="31">SLOPE(G32:G56,$B$4:$B$28)</f>
+        <v>4.4418065835329458E-2</v>
+      </c>
+      <c r="P54">
+        <f t="shared" ref="P54" si="32">SLOPE(H32:H56,$B$4:$B$28)</f>
+        <v>1.265182571829006E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2018</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:H55" si="33">(C27-32)*(5/9)</f>
+        <v>27.376037864869339</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="33"/>
+        <v>25.710267723371615</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="33"/>
+        <v>20.492333271111054</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="33"/>
+        <v>32.272684826114279</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="33"/>
+        <v>24.382901600433168</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="33"/>
+        <v>25.283249163957617</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2019</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:H56" si="34">(C28-32)*(5/9)</f>
+        <v>27.38128037015661</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="34"/>
+        <v>25.780281586262557</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="34"/>
+        <v>20.384438661612442</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="34"/>
+        <v>32.336355376317997</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="34"/>
+        <v>24.005386780980334</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="34"/>
+        <v>25.614911754568052</v>
       </c>
     </row>
   </sheetData>
@@ -8694,8 +12696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C264258-D332-44C4-B410-5AB85B8FE2DE}">
   <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8716,7 +12718,7 @@
         <v>110</v>
       </c>
       <c r="E4">
-        <f>(D4-32)*(5/9)</f>
+        <f t="shared" ref="E4:E23" si="0">(D4-32)*(5/9)</f>
         <v>43.333333333333336</v>
       </c>
     </row>
@@ -8731,7 +12733,7 @@
         <v>108.5</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E23" si="0">(D5-32)*(5/9)</f>
+        <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
     </row>
@@ -8767,10 +12769,10 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>107.5</v>
@@ -8782,10 +12784,10 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>107.5</v>
@@ -9007,142 +13009,142 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>30.7</v>
+        <v>-50</v>
       </c>
       <c r="E27">
-        <f>(D27-32)*(5/9)</f>
-        <v>-0.72222222222222265</v>
+        <f t="shared" ref="E27:E46" si="1">(D27-32)*(5/9)</f>
+        <v>-45.555555555555557</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>-37.200000000000003</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E46" si="1">(D28-32)*(5/9)</f>
-        <v>0.55555555555555558</v>
+        <f t="shared" si="1"/>
+        <v>-38.44444444444445</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>69</v>
       </c>
       <c r="D29">
-        <v>33.799999999999997</v>
+        <v>-36.5</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>0.99999999999999845</v>
+        <v>-38.055555555555557</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30">
-        <v>35.299999999999997</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>1.8333333333333319</v>
+        <v>-37.611111111111114</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>39.700000000000003</v>
+        <v>-29.8</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>4.2777777777777795</v>
+        <v>-34.333333333333336</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>41.1</v>
+        <v>-29.5</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>5.0555555555555562</v>
+        <v>-34.166666666666671</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D33">
-        <v>41.1</v>
+        <v>-29.2</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>5.0555555555555562</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>43.1</v>
+        <v>-28.1</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>6.1666666666666679</v>
+        <v>-33.388888888888893</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D35">
-        <v>44.8</v>
+        <v>-27.9</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>7.1111111111111098</v>
+        <v>-33.277777777777779</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -9150,164 +13152,164 @@
         <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>44.9</v>
+        <v>-26.4</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>7.1666666666666661</v>
+        <v>-32.444444444444443</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D37">
-        <v>45.6</v>
+        <v>-24.1</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>7.5555555555555562</v>
+        <v>-31.166666666666668</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>45.7</v>
+        <v>-23.8</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>7.6111111111111134</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D39">
-        <v>47.8</v>
+        <v>-22.2</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>8.7777777777777768</v>
+        <v>-30.111111111111114</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>48.2</v>
+        <v>-22</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>9.0000000000000018</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>49.4</v>
+        <v>-21.2</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>9.6666666666666661</v>
+        <v>-29.555555555555557</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>50.9</v>
+        <v>-20.9</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>-29.388888888888889</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D43">
-        <v>51.8</v>
+        <v>-20.5</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>10.999999999999998</v>
+        <v>-29.166666666666668</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D44">
-        <v>53.2</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>11.77777777777778</v>
+        <v>-29.111111111111111</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>56.1</v>
+        <v>-20</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>13.388888888888891</v>
+        <v>-28.888888888888889</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>57.9</v>
+        <v>-20</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>14.388888888888889</v>
+        <v>-28.888888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/exel.xlsx
+++ b/exel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Google Drive\Tareas\Patos\proyecto\daily_temp_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria José\Documents\9 semestre\Patos\proyecto\daily_temp_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC66D8A-6F85-45DB-AD41-3D5940D5DBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13290" activeTab="3" xr2:uid="{EB65F998-C7A7-4408-AC65-F4F555A00757}"/>
+    <workbookView xWindow="-24120" yWindow="2580" windowWidth="24240" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ciudades con mayor variacion'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -318,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -401,6 +400,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -426,7 +426,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -679,82 +679,82 @@
             <c:numRef>
               <c:f>Hoja1!$G$6:$G$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>74.925373076021501</c:v>
+                  <c:v>73.494661115574104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.112963894586102</c:v>
+                  <c:v>72.430777049171098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.970286244060603</c:v>
+                  <c:v>72.970619208715107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.058718916005802</c:v>
+                  <c:v>74.411392071978597</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.868625369626201</c:v>
+                  <c:v>73.762325417041296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.443314272730703</c:v>
+                  <c:v>73.1592091798273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.057755056010805</c:v>
+                  <c:v>73.638130331959104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.702001179476994</c:v>
+                  <c:v>74.4139540344853</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.338825171659195</c:v>
+                  <c:v>74.112700264265001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73.917601269649197</c:v>
+                  <c:v>73.136822831793793</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.636561406149994</c:v>
+                  <c:v>74.703548532455102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.850887099851093</c:v>
+                  <c:v>74.075794562834602</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.482071406586599</c:v>
+                  <c:v>74.168548185996102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>74.954373749807601</c:v>
+                  <c:v>73.465610415579704</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74.635529824026804</c:v>
+                  <c:v>73.558727797268801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.222144778211202</c:v>
+                  <c:v>74.833345027250402</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.101324580034699</c:v>
+                  <c:v>74.724123282321102</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>76.082342733188696</c:v>
+                  <c:v>74.522597460774904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75.147324454251702</c:v>
+                  <c:v>73.983970723462306</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74.961610532267102</c:v>
+                  <c:v>73.825856792270798</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75.987340132750504</c:v>
+                  <c:v>75.068681773109702</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>76.559073609199004</c:v>
+                  <c:v>75.5429388476539</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75.778776626132398</c:v>
+                  <c:v>74.526251818206106</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>76.474828795043194</c:v>
+                  <c:v>75.308988053474494</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>76.016541538461496</c:v>
+                  <c:v>75.4107588776006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,82 +802,82 @@
             <c:numRef>
               <c:f>Hoja1!$H$6:$H$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>62.400744532340603</c:v>
+                  <c:v>47.028847128356198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.0914410058027</c:v>
+                  <c:v>44.573056739569701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.577145759268603</c:v>
+                  <c:v>46.831556366153897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.634934497816602</c:v>
+                  <c:v>47.797942232616101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.929392799570103</c:v>
+                  <c:v>47.444269954327602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.876569264069197</c:v>
+                  <c:v>47.578728797760199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.417747252747198</c:v>
+                  <c:v>46.385611072800003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.962885462555001</c:v>
+                  <c:v>48.102629715870599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.125038245792901</c:v>
+                  <c:v>45.6908247446855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.823072943610903</c:v>
+                  <c:v>46.717186393473902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61.2832555728356</c:v>
+                  <c:v>46.913355876478597</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61.444381443298902</c:v>
+                  <c:v>48.138775711292197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.027367870225</c:v>
+                  <c:v>47.734886236470203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61.392898172323697</c:v>
+                  <c:v>46.663119931724999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.572496107939799</c:v>
+                  <c:v>46.835541174070698</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.484260651629</c:v>
+                  <c:v>46.6650386551105</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61.829596412556</c:v>
+                  <c:v>46.407577572239703</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61.748216833095498</c:v>
+                  <c:v>49.4585445128915</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62.105168210628896</c:v>
+                  <c:v>46.835843539743998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>62.553204794163598</c:v>
+                  <c:v>45.492982064894598</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.390384615384598</c:v>
+                  <c:v>46.774414167854196</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62.022592997811799</c:v>
+                  <c:v>49.587242217963599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62.210978260869503</c:v>
+                  <c:v>49.822213721746998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>61.621349557522102</c:v>
+                  <c:v>47.645999381206401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.576078645548797</c:v>
+                  <c:v>47.395260469318899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,7 +1065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1989842288"/>
@@ -1126,7 +1126,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1989863088"/>
@@ -1143,6 +1143,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1168,12 +1169,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1181,7 +1183,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1205,7 +1206,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2048,7 +2049,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1276656944"/>
@@ -2107,7 +2108,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="764534608"/>
@@ -2124,6 +2125,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2131,7 +2133,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2155,7 +2156,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3751,7 +3752,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1513614623"/>
@@ -3811,7 +3812,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1513613375"/>
@@ -3856,7 +3857,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3872,7 +3873,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4189,7 +4190,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1276068416"/>
@@ -4248,7 +4249,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1276067168"/>
@@ -4265,6 +4266,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4272,7 +4274,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4296,7 +4297,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4347,7 +4348,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4444,7 +4445,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -4452,7 +4453,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -4515,7 +4516,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1326741456"/>
@@ -4574,7 +4575,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1326738960"/>
@@ -4591,6 +4592,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4598,7 +4600,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4622,7 +4623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4648,6 +4649,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4673,7 +4675,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4894,7 +4896,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1399627936"/>
@@ -4953,7 +4955,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1399627520"/>
@@ -4970,6 +4972,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4977,7 +4980,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5001,7 +5003,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7777,9 +7779,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8298,11 +8300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C714A26-8582-4DED-B929-AA40AE456B7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8346,7 +8348,7 @@
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6">
         <f>SUM(F6:I6)/4</f>
-        <v>63.956590158972574</v>
+        <v>59.755937817864627</v>
       </c>
       <c r="E6">
         <v>1995</v>
@@ -8354,11 +8356,11 @@
       <c r="F6" s="2">
         <v>58.421871861099099</v>
       </c>
-      <c r="G6" s="2">
-        <v>74.925373076021501</v>
-      </c>
-      <c r="H6" s="2">
-        <v>62.400744532340603</v>
+      <c r="G6">
+        <v>73.494661115574104</v>
+      </c>
+      <c r="H6">
+        <v>47.028847128356198</v>
       </c>
       <c r="I6" s="2">
         <v>60.0783711664291</v>
@@ -8369,7 +8371,7 @@
     <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7">
         <f>SUM(F7:I7)/4</f>
-        <v>63.045467870364796</v>
+        <v>58.495325092452795</v>
       </c>
       <c r="E7">
         <v>1996</v>
@@ -8377,11 +8379,11 @@
       <c r="F7" s="2">
         <v>57.5010425020048</v>
       </c>
-      <c r="G7" s="2">
-        <v>74.112963894586102</v>
-      </c>
-      <c r="H7" s="2">
-        <v>61.0914410058027</v>
+      <c r="G7">
+        <v>72.430777049171098</v>
+      </c>
+      <c r="H7">
+        <v>44.573056739569701</v>
       </c>
       <c r="I7" s="2">
         <v>59.476424079065602</v>
@@ -8392,11 +8394,11 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" ref="K7:M22" si="0">G7-G6</f>
-        <v>-0.81240918143539886</v>
+        <v>-1.0638840664030056</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>-1.3093035265379029</v>
+        <v>-2.4557903887864967</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
@@ -8405,8 +8407,8 @@
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8">
-        <f t="shared" ref="D7:D30" si="1">SUM(F8:I8)/4</f>
-        <v>63.402785370641247</v>
+        <f t="shared" ref="D8:D30" si="1">SUM(F8:I8)/4</f>
+        <v>59.466471263526202</v>
       </c>
       <c r="E8">
         <v>1997</v>
@@ -8414,11 +8416,11 @@
       <c r="F8" s="2">
         <v>57.881461599026601</v>
       </c>
-      <c r="G8" s="2">
-        <v>73.970286244060603</v>
-      </c>
-      <c r="H8" s="2">
-        <v>61.577145759268603</v>
+      <c r="G8">
+        <v>72.970619208715107</v>
+      </c>
+      <c r="H8">
+        <v>46.831556366153897</v>
       </c>
       <c r="I8" s="2">
         <v>60.182247880209196</v>
@@ -8429,11 +8431,11 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>-0.14267765052549919</v>
+        <v>0.53984215954400838</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>0.48570475346590314</v>
+        <v>2.2584996265841966</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
@@ -8443,7 +8445,7 @@
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>64.473476303588299</v>
+        <v>60.852396526281375</v>
       </c>
       <c r="E9">
         <v>1998</v>
@@ -8451,11 +8453,11 @@
       <c r="F9" s="2">
         <v>59.358173906789297</v>
       </c>
-      <c r="G9" s="2">
-        <v>75.058718916005802</v>
-      </c>
-      <c r="H9" s="2">
-        <v>61.634934497816602</v>
+      <c r="G9">
+        <v>74.411392071978597</v>
+      </c>
+      <c r="H9">
+        <v>47.797942232616101</v>
       </c>
       <c r="I9" s="2">
         <v>61.842077893741497</v>
@@ -8466,11 +8468,11 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
-        <v>1.0884326719451991</v>
+        <v>1.44077286326349</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="0"/>
-        <v>5.7788738547998264E-2</v>
+        <v>0.96638586646220404</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="0"/>
@@ -8480,7 +8482,7 @@
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>64.044741461732698</v>
+        <v>60.396885762275851</v>
       </c>
       <c r="E10">
         <v>1999</v>
@@ -8488,11 +8490,11 @@
       <c r="F10" s="2">
         <v>58.911647354806597</v>
       </c>
-      <c r="G10" s="2">
-        <v>74.868625369626201</v>
-      </c>
-      <c r="H10" s="2">
-        <v>60.929392799570103</v>
+      <c r="G10">
+        <v>73.762325417041296</v>
+      </c>
+      <c r="H10">
+        <v>47.444269954327602</v>
       </c>
       <c r="I10" s="2">
         <v>61.4693003229279</v>
@@ -8503,11 +8505,11 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>-0.1900935463796003</v>
+        <v>-0.64906665493730031</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
-        <v>-0.70554169824649904</v>
+        <v>-0.35367227828849934</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="0"/>
@@ -8517,7 +8519,7 @@
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>63.687772878776627</v>
+        <v>60.292286488973524</v>
       </c>
       <c r="E11">
         <v>2000</v>
@@ -8525,11 +8527,11 @@
       <c r="F11" s="2">
         <v>60.156114338667599</v>
       </c>
-      <c r="G11" s="2">
-        <v>74.443314272730703</v>
-      </c>
-      <c r="H11" s="2">
-        <v>59.876569264069197</v>
+      <c r="G11">
+        <v>73.1592091798273</v>
+      </c>
+      <c r="H11">
+        <v>47.578728797760199</v>
       </c>
       <c r="I11" s="2">
         <v>60.275093639639003</v>
@@ -8540,11 +8542,11 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>-0.42531109689549851</v>
+        <v>-0.60311623721399599</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0528235355009059</v>
+        <v>0.13445884343259706</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="0"/>
@@ -8554,7 +8556,7 @@
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>64.147221077506956</v>
+        <v>60.284280851507233</v>
       </c>
       <c r="E12">
         <v>2001</v>
@@ -8562,11 +8564,11 @@
       <c r="F12" s="2">
         <v>59.438440482874697</v>
       </c>
-      <c r="G12" s="2">
-        <v>75.057755056010805</v>
-      </c>
-      <c r="H12" s="2">
-        <v>60.417747252747198</v>
+      <c r="G12">
+        <v>73.638130331959104</v>
+      </c>
+      <c r="H12">
+        <v>46.385611072800003</v>
       </c>
       <c r="I12" s="2">
         <v>61.674941518395102</v>
@@ -8577,11 +8579,11 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>0.61444078328010221</v>
+        <v>0.47892115213180375</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="0"/>
-        <v>0.54117798867800104</v>
+        <v>-1.1931177249601959</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="0"/>
@@ -8591,7 +8593,7 @@
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>64.159145784015649</v>
+        <v>60.622070061096622</v>
       </c>
       <c r="E13">
         <v>2002</v>
@@ -8599,11 +8601,11 @@
       <c r="F13" s="2">
         <v>59.172836605890602</v>
       </c>
-      <c r="G13" s="2">
-        <v>75.702001179476994</v>
-      </c>
-      <c r="H13" s="2">
-        <v>60.962885462555001</v>
+      <c r="G13">
+        <v>74.4139540344853</v>
+      </c>
+      <c r="H13">
+        <v>48.102629715870599</v>
       </c>
       <c r="I13" s="2">
         <v>60.798859888140001</v>
@@ -8614,11 +8616,11 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>0.64424612346618915</v>
+        <v>0.77582370252619626</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="0"/>
-        <v>0.54513820980780281</v>
+        <v>1.7170186430705954</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="0"/>
@@ -8628,7 +8630,7 @@
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>64.279317020359571</v>
+        <v>60.114232418234181</v>
       </c>
       <c r="E14">
         <v>2003</v>
@@ -8636,11 +8638,11 @@
       <c r="F14" s="2">
         <v>59.270995240463101</v>
       </c>
-      <c r="G14" s="2">
-        <v>75.338825171659195</v>
-      </c>
-      <c r="H14" s="2">
-        <v>61.125038245792901</v>
+      <c r="G14">
+        <v>74.112700264265001</v>
+      </c>
+      <c r="H14">
+        <v>45.6908247446855</v>
       </c>
       <c r="I14" s="2">
         <v>61.3824094235231</v>
@@ -8651,11 +8653,11 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>-0.36317600781779902</v>
+        <v>-0.30125377022029909</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="0"/>
-        <v>0.16215278323790017</v>
+        <v>-2.4118049711850986</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="0"/>
@@ -8665,7 +8667,7 @@
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>64.235955481029023</v>
+        <v>60.514289234030926</v>
       </c>
       <c r="E15">
         <v>2004</v>
@@ -8673,11 +8675,11 @@
       <c r="F15" s="2">
         <v>60.1983704489218</v>
       </c>
-      <c r="G15" s="2">
-        <v>73.917601269649197</v>
-      </c>
-      <c r="H15" s="2">
-        <v>60.823072943610903</v>
+      <c r="G15">
+        <v>73.136822831793793</v>
+      </c>
+      <c r="H15">
+        <v>46.717186393473902</v>
       </c>
       <c r="I15" s="2">
         <v>62.004777261934201</v>
@@ -8688,11 +8690,11 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4212239020099986</v>
+        <v>-0.97587743247120784</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="0"/>
-        <v>-0.30196530218199769</v>
+        <v>1.0263616487884022</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="0"/>
@@ -8702,7 +8704,7 @@
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>64.5850641119969</v>
+        <v>60.759335969483921</v>
       </c>
       <c r="E16">
         <v>2005</v>
@@ -8710,11 +8712,11 @@
       <c r="F16" s="2">
         <v>58.9748974799341</v>
       </c>
-      <c r="G16" s="2">
-        <v>75.636561406149994</v>
-      </c>
-      <c r="H16" s="2">
-        <v>61.2832555728356</v>
+      <c r="G16">
+        <v>74.703548532455102</v>
+      </c>
+      <c r="H16">
+        <v>46.913355876478597</v>
       </c>
       <c r="I16" s="2">
         <v>62.445541989067898</v>
@@ -8725,11 +8727,11 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>1.7189601365007974</v>
+        <v>1.5667257006613085</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="0"/>
-        <v>0.46018262922469688</v>
+        <v>0.19616948300469517</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="0"/>
@@ -8739,7 +8741,7 @@
     <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>64.690302885651789</v>
+        <v>60.920128318396003</v>
       </c>
       <c r="E17">
         <v>2006</v>
@@ -8747,11 +8749,11 @@
       <c r="F17" s="2">
         <v>60.187597796723097</v>
       </c>
-      <c r="G17" s="2">
-        <v>75.850887099851093</v>
-      </c>
-      <c r="H17" s="2">
-        <v>61.444381443298902</v>
+      <c r="G17">
+        <v>74.075794562834602</v>
+      </c>
+      <c r="H17">
+        <v>48.138775711292197</v>
       </c>
       <c r="I17" s="2">
         <v>61.278345202734101</v>
@@ -8762,11 +8764,11 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>0.21432569370109888</v>
+        <v>-0.62775396962049967</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="0"/>
-        <v>0.16112587046330162</v>
+        <v>1.2254198348136001</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="0"/>
@@ -8776,7 +8778,7 @@
     <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>64.753292098406973</v>
+        <v>61.101790884820652</v>
       </c>
       <c r="E18">
         <v>2007</v>
@@ -8784,11 +8786,11 @@
       <c r="F18" s="2">
         <v>60.4784694277269</v>
       </c>
-      <c r="G18" s="2">
-        <v>75.482071406586599</v>
-      </c>
-      <c r="H18" s="2">
-        <v>61.027367870225</v>
+      <c r="G18">
+        <v>74.168548185996102</v>
+      </c>
+      <c r="H18">
+        <v>47.734886236470203</v>
       </c>
       <c r="I18" s="2">
         <v>62.025259689089403</v>
@@ -8799,11 +8801,11 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="0"/>
-        <v>-0.36881569326449437</v>
+        <v>9.2753623161499377E-2</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="0"/>
-        <v>-0.41701357307390197</v>
+        <v>-0.40388947482199455</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="0"/>
@@ -8813,7 +8815,7 @@
     <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>64.097077648430044</v>
+        <v>60.042442254723397</v>
       </c>
       <c r="E19">
         <v>2008</v>
@@ -8821,11 +8823,11 @@
       <c r="F19" s="2">
         <v>59.209767957381302</v>
       </c>
-      <c r="G19" s="2">
-        <v>74.954373749807601</v>
-      </c>
-      <c r="H19" s="2">
-        <v>61.392898172323697</v>
+      <c r="G19">
+        <v>73.465610415579704</v>
+      </c>
+      <c r="H19">
+        <v>46.663119931724999</v>
       </c>
       <c r="I19" s="2">
         <v>60.831270714207598</v>
@@ -8836,11 +8838,11 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
-        <v>-0.52769765677899727</v>
+        <v>-0.70293777041639771</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="0"/>
-        <v>0.36553030209869775</v>
+        <v>-1.0717663047452035</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="0"/>
@@ -8850,7 +8852,7 @@
     <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>64.362145247566971</v>
+        <v>60.408706007410196</v>
       </c>
       <c r="E20">
         <v>2009</v>
@@ -8858,11 +8860,11 @@
       <c r="F20" s="2">
         <v>59.745855220551199</v>
       </c>
-      <c r="G20" s="2">
-        <v>74.635529824026804</v>
-      </c>
-      <c r="H20" s="2">
-        <v>61.572496107939799</v>
+      <c r="G20">
+        <v>73.558727797268801</v>
+      </c>
+      <c r="H20">
+        <v>46.835541174070698</v>
       </c>
       <c r="I20" s="2">
         <v>61.494699837750098</v>
@@ -8873,11 +8875,11 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
-        <v>-0.31884392578079712</v>
+        <v>9.3117381689097556E-2</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="0"/>
-        <v>0.17959793561610127</v>
+        <v>0.172421242345699</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="0"/>
@@ -8887,7 +8889,7 @@
     <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>65.096803861565348</v>
+        <v>61.044798424695522</v>
       </c>
       <c r="E21">
         <v>2010</v>
@@ -8895,11 +8897,11 @@
       <c r="F21" s="2">
         <v>60.6912430374392</v>
       </c>
-      <c r="G21" s="2">
-        <v>76.222144778211202</v>
-      </c>
-      <c r="H21" s="2">
-        <v>61.484260651629</v>
+      <c r="G21">
+        <v>74.833345027250402</v>
+      </c>
+      <c r="H21">
+        <v>46.6650386551105</v>
       </c>
       <c r="I21" s="2">
         <v>61.989566978981998</v>
@@ -8910,11 +8912,11 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>1.5866149541843981</v>
+        <v>1.274617229981601</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="0"/>
-        <v>-8.8235456310798099E-2</v>
+        <v>-0.1705025189601983</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="0"/>
@@ -8924,7 +8926,7 @@
     <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>64.917190311842035</v>
+        <v>60.717385277334557</v>
       </c>
       <c r="E22">
         <v>2011</v>
@@ -8932,11 +8934,11 @@
       <c r="F22" s="2">
         <v>59.862941851294103</v>
       </c>
-      <c r="G22" s="2">
-        <v>76.101324580034699</v>
-      </c>
-      <c r="H22" s="2">
-        <v>61.829596412556</v>
+      <c r="G22">
+        <v>74.724123282321102</v>
+      </c>
+      <c r="H22">
+        <v>46.407577572239703</v>
       </c>
       <c r="I22" s="2">
         <v>61.8748984034833</v>
@@ -8947,11 +8949,11 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" si="0"/>
-        <v>-0.12082019817650291</v>
+        <v>-0.10922174492930026</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="0"/>
-        <v>0.34533576092700002</v>
+        <v>-0.2574610828707975</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="0"/>
@@ -8961,7 +8963,7 @@
     <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>65.301739275584268</v>
+        <v>61.839384877429829</v>
       </c>
       <c r="E23">
         <v>2012</v>
@@ -8969,11 +8971,11 @@
       <c r="F23" s="2">
         <v>62.111980697362199</v>
       </c>
-      <c r="G23" s="2">
-        <v>76.082342733188696</v>
-      </c>
-      <c r="H23" s="2">
-        <v>61.748216833095498</v>
+      <c r="G23">
+        <v>74.522597460774904</v>
+      </c>
+      <c r="H23">
+        <v>49.4585445128915</v>
       </c>
       <c r="I23" s="2">
         <v>61.2644168386907</v>
@@ -8984,11 +8986,11 @@
       </c>
       <c r="K23" s="2">
         <f t="shared" ref="K23:K30" si="3">G23-G22</f>
-        <v>-1.8981846846003236E-2</v>
+        <v>-0.20152582154619836</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" ref="L23:L30" si="4">H23-H22</f>
-        <v>-8.1379579460502782E-2</v>
+        <v>3.0509669406517972</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" ref="M23:M30" si="5">I23-I22</f>
@@ -8998,7 +9000,7 @@
     <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>64.300986981960833</v>
+        <v>60.192817381542248</v>
       </c>
       <c r="E24">
         <v>2013</v>
@@ -9006,11 +9008,11 @@
       <c r="F24" s="2">
         <v>58.635711414056502</v>
       </c>
-      <c r="G24" s="2">
-        <v>75.147324454251702</v>
-      </c>
-      <c r="H24" s="2">
-        <v>62.105168210628896</v>
+      <c r="G24">
+        <v>73.983970723462306</v>
+      </c>
+      <c r="H24">
+        <v>46.835843539743998</v>
       </c>
       <c r="I24" s="2">
         <v>61.315743848906202</v>
@@ -9021,11 +9023,11 @@
       </c>
       <c r="K24" s="2">
         <f t="shared" si="3"/>
-        <v>-0.93501827893699385</v>
+        <v>-0.53862673731259747</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="4"/>
-        <v>0.35695137753339878</v>
+        <v>-2.6227009731475022</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="5"/>
@@ -9035,7 +9037,7 @@
     <row r="25" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>64.612701463984706</v>
+        <v>60.06370734666838</v>
       </c>
       <c r="E25">
         <v>2014</v>
@@ -9043,11 +9045,11 @@
       <c r="F25" s="2">
         <v>59.328487772539702</v>
       </c>
-      <c r="G25" s="2">
-        <v>74.961610532267102</v>
-      </c>
-      <c r="H25" s="2">
-        <v>62.553204794163598</v>
+      <c r="G25">
+        <v>73.825856792270798</v>
+      </c>
+      <c r="H25">
+        <v>45.492982064894598</v>
       </c>
       <c r="I25" s="2">
         <v>61.607502756968401</v>
@@ -9058,11 +9060,11 @@
       </c>
       <c r="K25" s="2">
         <f t="shared" si="3"/>
-        <v>-0.18571392198460046</v>
+        <v>-0.15811393119150807</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="4"/>
-        <v>0.44803658353470155</v>
+        <v>-1.3428614748493999</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="5"/>
@@ -9087,7 +9089,7 @@
     <row r="26" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>65.635512331914157</v>
+        <v>61.501855130121349</v>
       </c>
       <c r="E26">
         <v>2015</v>
@@ -9095,11 +9097,11 @@
       <c r="F26" s="2">
         <v>60.746271186440602</v>
       </c>
-      <c r="G26" s="2">
-        <v>75.987340132750504</v>
-      </c>
-      <c r="H26" s="2">
-        <v>62.390384615384598</v>
+      <c r="G26">
+        <v>75.068681773109702</v>
+      </c>
+      <c r="H26">
+        <v>46.774414167854196</v>
       </c>
       <c r="I26" s="2">
         <v>63.418053393080903</v>
@@ -9110,11 +9112,11 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" si="3"/>
-        <v>1.0257296004834018</v>
+        <v>1.242824980838904</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="4"/>
-        <v>-0.16282017877900046</v>
+        <v>1.2814321029595988</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="5"/>
@@ -9126,11 +9128,11 @@
       </c>
       <c r="P26">
         <f>SLOPE(G6:G30,$E$6:$E$30)</f>
-        <v>7.1341999414166149E-2</v>
+        <v>7.904985994209901E-2</v>
       </c>
       <c r="Q26">
         <f>SLOPE(H6:H30,$E$6:$E$30)</f>
-        <v>5.197278028529758E-2</v>
+        <v>5.7546754499446337E-2</v>
       </c>
       <c r="R26">
         <f>SLOPE(I6:I30,$E$6:$E$30)</f>
@@ -9140,7 +9142,7 @@
     <row r="27" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>65.852710489289578</v>
+        <v>62.48983910394125</v>
       </c>
       <c r="E27">
         <v>2016</v>
@@ -9148,11 +9150,11 @@
       <c r="F27" s="2">
         <v>61.238237200259199</v>
       </c>
-      <c r="G27" s="2">
-        <v>76.559073609199004</v>
-      </c>
-      <c r="H27" s="2">
-        <v>62.022592997811799</v>
+      <c r="G27">
+        <v>75.5429388476539</v>
+      </c>
+      <c r="H27">
+        <v>49.587242217963599</v>
       </c>
       <c r="I27" s="2">
         <v>63.590938149888302</v>
@@ -9163,11 +9165,11 @@
       </c>
       <c r="K27" s="2">
         <f t="shared" si="3"/>
-        <v>0.57173347644850026</v>
+        <v>0.47425707454419808</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="4"/>
-        <v>-0.36779161757279866</v>
+        <v>2.8128280501094025</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="5"/>
@@ -9177,7 +9179,7 @@
     <row r="28" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>65.452312997562274</v>
+        <v>62.041990660800074</v>
       </c>
       <c r="E28">
         <v>2017</v>
@@ -9185,11 +9187,11 @@
       <c r="F28" s="2">
         <v>61.180300797339697</v>
       </c>
-      <c r="G28" s="2">
-        <v>75.778776626132398</v>
-      </c>
-      <c r="H28" s="2">
-        <v>62.210978260869503</v>
+      <c r="G28">
+        <v>74.526251818206106</v>
+      </c>
+      <c r="H28">
+        <v>49.822213721746998</v>
       </c>
       <c r="I28" s="2">
         <v>62.639196305907497</v>
@@ -9200,11 +9202,11 @@
       </c>
       <c r="K28" s="2">
         <f t="shared" si="3"/>
-        <v>-0.78029698306660578</v>
+        <v>-1.0166870294477945</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="4"/>
-        <v>0.18838526305770387</v>
+        <v>0.23497150378339882</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="5"/>
@@ -9214,7 +9216,7 @@
     <row r="29" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>65.047682853589649</v>
+        <v>61.262385124118552</v>
       </c>
       <c r="E29">
         <v>2018</v>
@@ -9222,11 +9224,11 @@
       <c r="F29" s="2">
         <v>60.437331464929599</v>
       </c>
-      <c r="G29" s="2">
-        <v>76.474828795043194</v>
-      </c>
-      <c r="H29" s="2">
-        <v>61.621349557522102</v>
+      <c r="G29">
+        <v>75.308988053474494</v>
+      </c>
+      <c r="H29">
+        <v>47.645999381206401</v>
       </c>
       <c r="I29" s="2">
         <v>61.6572215968637</v>
@@ -9237,11 +9239,11 @@
       </c>
       <c r="K29" s="2">
         <f t="shared" si="3"/>
-        <v>0.69605216891079635</v>
+        <v>0.78273623526838776</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="4"/>
-        <v>-0.58962870334740103</v>
+        <v>-2.1762143405405965</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="5"/>
@@ -9251,7 +9253,7 @@
     <row r="30" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>65.084283307324995</v>
+        <v>61.137633098052305</v>
       </c>
       <c r="E30">
         <v>2019</v>
@@ -9259,11 +9261,11 @@
       <c r="F30" s="2">
         <v>59.6551048136646</v>
       </c>
-      <c r="G30" s="2">
-        <v>76.016541538461496</v>
-      </c>
-      <c r="H30" s="2">
-        <v>62.576078645548797</v>
+      <c r="G30">
+        <v>75.4107588776006</v>
+      </c>
+      <c r="H30">
+        <v>47.395260469318899</v>
       </c>
       <c r="I30" s="2">
         <v>62.0894082316251</v>
@@ -9274,11 +9276,11 @@
       </c>
       <c r="K30" s="2">
         <f t="shared" si="3"/>
-        <v>-0.45828725658169844</v>
+        <v>0.10177082412610616</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="4"/>
-        <v>0.95472908802669565</v>
+        <v>-0.25073891188750252</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="5"/>
@@ -9288,7 +9290,7 @@
     <row r="31" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <f>D30-D6</f>
-        <v>1.1276931483524208</v>
+        <v>1.3816952801876781</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -9297,23 +9299,21 @@
         <f>F30-F6</f>
         <v>1.2332329525655013</v>
       </c>
-      <c r="G31" s="3">
-        <f t="shared" ref="G31:H31" si="6">G30-G6</f>
-        <v>1.0911684624399953</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="6"/>
-        <v>0.17533411320819425</v>
+      <c r="G31">
+        <v>73.191208772344893</v>
+      </c>
+      <c r="H31">
+        <v>49.034296844208797</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" ref="I31" si="7">I30-I6</f>
+        <f t="shared" ref="I31" si="6">I30-I6</f>
         <v>2.0110370651959997</v>
       </c>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <f>MAX(D6:D30)-MIN(D6:D30)</f>
-        <v>2.8072426189247821</v>
+        <v>3.9945140114884552</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -9323,12 +9323,12 @@
         <v>4.6109381953573987</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" ref="G32:H32" si="8">MAX(G6:G30)-MIN(G6:G30)</f>
-        <v>2.6414723395498072</v>
+        <f t="shared" ref="G32:H32" si="7">MAX(G6:G30)-MIN(G6:G30)</f>
+        <v>3.1121617984828021</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="8"/>
-        <v>2.6995093814796007</v>
+        <f t="shared" si="7"/>
+        <v>5.249156982177297</v>
       </c>
       <c r="I32" s="2">
         <f>MAX(I6:I30)-MIN(I6:I30)</f>
@@ -9343,7 +9343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC960B77-A31D-4679-BF7E-2B47567D8405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N107"/>
   <sheetViews>
     <sheetView topLeftCell="B82" workbookViewId="0">
@@ -11214,7 +11214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76788943-DE84-49BB-981C-A0946E7660AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P56"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -12350,7 +12350,7 @@
         <v>2010</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:H47" si="17">(C19-32)*(5/9)</f>
+        <f t="shared" ref="C47:G47" si="17">(C19-32)*(5/9)</f>
         <v>27.291389781519836</v>
       </c>
       <c r="D47">
@@ -12693,10 +12693,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C264258-D332-44C4-B410-5AB85B8FE2DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
